--- a/meera_silica_2025/silica_data_manipulated_by_anna.xlsx
+++ b/meera_silica_2025/silica_data_manipulated_by_anna.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna Barth\acous_colloids\meera_silica_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CA94BE-1833-403F-861C-591E15084F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63364CBA-547E-4BE9-8B32-A92639D96636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VolumeFractions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="f" sheetId="5" r:id="rId5"/>
     <sheet name="sigmastar" sheetId="19" r:id="rId6"/>
     <sheet name="x_WC" sheetId="6" r:id="rId7"/>
-    <sheet name="phi0" sheetId="20" r:id="rId8"/>
+    <sheet name="phi0_from_x_WC" sheetId="20" r:id="rId8"/>
     <sheet name="y_WC" sheetId="7" r:id="rId9"/>
     <sheet name="CPhi" sheetId="8" r:id="rId10"/>
     <sheet name="Beta_Eta" sheetId="9" r:id="rId11"/>
@@ -30,9 +30,13 @@
     <sheet name="yCardyScaling" sheetId="13" r:id="rId15"/>
     <sheet name="CPhi2" sheetId="14" r:id="rId16"/>
     <sheet name="xScaling2" sheetId="15" r:id="rId17"/>
-    <sheet name="yScaling2" sheetId="16" r:id="rId18"/>
-    <sheet name="xCardy2" sheetId="17" r:id="rId19"/>
-    <sheet name="yCardy2" sheetId="18" r:id="rId20"/>
+    <sheet name="phi0_from_xScaling2" sheetId="22" r:id="rId18"/>
+    <sheet name="yScaling2" sheetId="16" r:id="rId19"/>
+    <sheet name="F_over_eta" sheetId="24" r:id="rId20"/>
+    <sheet name="Sheet5" sheetId="25" r:id="rId21"/>
+    <sheet name="phi0_from_yScaling2" sheetId="21" r:id="rId22"/>
+    <sheet name="xCardy2" sheetId="17" r:id="rId23"/>
+    <sheet name="yCardy2" sheetId="18" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -460,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5865,8 +5869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7245,11 +7249,1556 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DD1FB6-9078-4B81-BB2B-0423236B106B}">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="e">
+        <f>CPhi2!A$1*f!A1/xScaling2!A1+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B1" t="e">
+        <f>CPhi2!B$1*f!B1/xScaling2!B1+VolumeFractions!B$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C1" t="e">
+        <f>CPhi2!C$1*f!C1/xScaling2!C1+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D1" t="e">
+        <f>CPhi2!D$1*f!D1/xScaling2!D1+VolumeFractions!D$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E1" t="e">
+        <f>CPhi2!E$1*f!E1/xScaling2!E1+VolumeFractions!E$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F1">
+        <f>CPhi2!F$1*f!F1/xScaling2!F1+VolumeFractions!F$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="G1">
+        <f>CPhi2!G$1*f!G1/xScaling2!G1+VolumeFractions!G$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="e">
+        <f>CPhi2!A$1*f!A2/xScaling2!A2+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B2" t="e">
+        <f>CPhi2!B$1*f!B2/xScaling2!B2+VolumeFractions!B$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C2" t="e">
+        <f>CPhi2!C$1*f!C2/xScaling2!C2+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D2" t="e">
+        <f>CPhi2!D$1*f!D2/xScaling2!D2+VolumeFractions!D$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E2" t="e">
+        <f>CPhi2!E$1*f!E2/xScaling2!E2+VolumeFractions!E$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F2">
+        <f>CPhi2!F$1*f!F2/xScaling2!F2+VolumeFractions!F$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="G2">
+        <f>CPhi2!G$1*f!G2/xScaling2!G2+VolumeFractions!G$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="e">
+        <f>CPhi2!A$1*f!A3/xScaling2!A3+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B3" t="e">
+        <f>CPhi2!B$1*f!B3/xScaling2!B3+VolumeFractions!B$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C3" t="e">
+        <f>CPhi2!C$1*f!C3/xScaling2!C3+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D3" t="e">
+        <f>CPhi2!D$1*f!D3/xScaling2!D3+VolumeFractions!D$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E3" t="e">
+        <f>CPhi2!E$1*f!E3/xScaling2!E3+VolumeFractions!E$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F3">
+        <f>CPhi2!F$1*f!F3/xScaling2!F3+VolumeFractions!F$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="G3">
+        <f>CPhi2!G$1*f!G3/xScaling2!G3+VolumeFractions!G$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="e">
+        <f>CPhi2!A$1*f!A4/xScaling2!A4+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B4" t="e">
+        <f>CPhi2!B$1*f!B4/xScaling2!B4+VolumeFractions!B$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C4" t="e">
+        <f>CPhi2!C$1*f!C4/xScaling2!C4+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D4" t="e">
+        <f>CPhi2!D$1*f!D4/xScaling2!D4+VolumeFractions!D$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E4" t="e">
+        <f>CPhi2!E$1*f!E4/xScaling2!E4+VolumeFractions!E$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F4">
+        <f>CPhi2!F$1*f!F4/xScaling2!F4+VolumeFractions!F$1</f>
+        <v>0.57770000000000021</v>
+      </c>
+      <c r="G4">
+        <f>CPhi2!G$1*f!G4/xScaling2!G4+VolumeFractions!G$1</f>
+        <v>0.57770000000000021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="e">
+        <f>CPhi2!A$1*f!A5/xScaling2!A5+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B5">
+        <f>CPhi2!B$1*f!B5/xScaling2!B5+VolumeFractions!B$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="C5">
+        <f>CPhi2!C$1*f!C5/xScaling2!C5+VolumeFractions!C$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="D5">
+        <f>CPhi2!D$1*f!D5/xScaling2!D5+VolumeFractions!D$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="E5">
+        <f>CPhi2!E$1*f!E5/xScaling2!E5+VolumeFractions!E$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="F5">
+        <f>CPhi2!F$1*f!F5/xScaling2!F5+VolumeFractions!F$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="G5">
+        <f>CPhi2!G$1*f!G5/xScaling2!G5+VolumeFractions!G$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="e">
+        <f>CPhi2!A$1*f!A6/xScaling2!A6+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B6">
+        <f>CPhi2!B$1*f!B6/xScaling2!B6+VolumeFractions!B$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="C6">
+        <f>CPhi2!C$1*f!C6/xScaling2!C6+VolumeFractions!C$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="D6">
+        <f>CPhi2!D$1*f!D6/xScaling2!D6+VolumeFractions!D$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="E6">
+        <f>CPhi2!E$1*f!E6/xScaling2!E6+VolumeFractions!E$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="F6">
+        <f>CPhi2!F$1*f!F6/xScaling2!F6+VolumeFractions!F$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="G6">
+        <f>CPhi2!G$1*f!G6/xScaling2!G6+VolumeFractions!G$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="e">
+        <f>CPhi2!A$1*f!A7/xScaling2!A7+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B7">
+        <f>CPhi2!B$1*f!B7/xScaling2!B7+VolumeFractions!B$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="C7">
+        <f>CPhi2!C$1*f!C7/xScaling2!C7+VolumeFractions!C$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="D7">
+        <f>CPhi2!D$1*f!D7/xScaling2!D7+VolumeFractions!D$1</f>
+        <v>0.57769999999999955</v>
+      </c>
+      <c r="E7">
+        <f>CPhi2!E$1*f!E7/xScaling2!E7+VolumeFractions!E$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="F7">
+        <f>CPhi2!F$1*f!F7/xScaling2!F7+VolumeFractions!F$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="G7">
+        <f>CPhi2!G$1*f!G7/xScaling2!G7+VolumeFractions!G$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>CPhi2!A$1*f!A8/xScaling2!A8+VolumeFractions!A$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="B8">
+        <f>CPhi2!B$1*f!B8/xScaling2!B8+VolumeFractions!B$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="C8">
+        <f>CPhi2!C$1*f!C8/xScaling2!C8+VolumeFractions!C$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="D8">
+        <f>CPhi2!D$1*f!D8/xScaling2!D8+VolumeFractions!D$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="E8">
+        <f>CPhi2!E$1*f!E8/xScaling2!E8+VolumeFractions!E$1</f>
+        <v>0.57770000000000021</v>
+      </c>
+      <c r="F8">
+        <f>CPhi2!F$1*f!F8/xScaling2!F8+VolumeFractions!F$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="G8">
+        <f>CPhi2!G$1*f!G8/xScaling2!G8+VolumeFractions!G$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>CPhi2!A$1*f!A9/xScaling2!A9+VolumeFractions!A$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="B9">
+        <f>CPhi2!B$1*f!B9/xScaling2!B9+VolumeFractions!B$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="C9">
+        <f>CPhi2!C$1*f!C9/xScaling2!C9+VolumeFractions!C$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="D9">
+        <f>CPhi2!D$1*f!D9/xScaling2!D9+VolumeFractions!D$1</f>
+        <v>0.57770000000000021</v>
+      </c>
+      <c r="E9">
+        <f>CPhi2!E$1*f!E9/xScaling2!E9+VolumeFractions!E$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="F9">
+        <f>CPhi2!F$1*f!F9/xScaling2!F9+VolumeFractions!F$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="G9">
+        <f>CPhi2!G$1*f!G9/xScaling2!G9+VolumeFractions!G$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>CPhi2!A$1*f!A10/xScaling2!A10+VolumeFractions!A$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="B10">
+        <f>CPhi2!B$1*f!B10/xScaling2!B10+VolumeFractions!B$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="C10">
+        <f>CPhi2!C$1*f!C10/xScaling2!C10+VolumeFractions!C$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="D10">
+        <f>CPhi2!D$1*f!D10/xScaling2!D10+VolumeFractions!D$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="E10">
+        <f>CPhi2!E$1*f!E10/xScaling2!E10+VolumeFractions!E$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="F10">
+        <f>CPhi2!F$1*f!F10/xScaling2!F10+VolumeFractions!F$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="G10">
+        <f>CPhi2!G$1*f!G10/xScaling2!G10+VolumeFractions!G$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>CPhi2!A$1*f!A11/xScaling2!A11+VolumeFractions!A$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="B11">
+        <f>CPhi2!B$1*f!B11/xScaling2!B11+VolumeFractions!B$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="C11">
+        <f>CPhi2!C$1*f!C11/xScaling2!C11+VolumeFractions!C$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="D11">
+        <f>CPhi2!D$1*f!D11/xScaling2!D11+VolumeFractions!D$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="E11">
+        <f>CPhi2!E$1*f!E11/xScaling2!E11+VolumeFractions!E$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="F11">
+        <f>CPhi2!F$1*f!F11/xScaling2!F11+VolumeFractions!F$1</f>
+        <v>0.57770000000000021</v>
+      </c>
+      <c r="G11">
+        <f>CPhi2!G$1*f!G11/xScaling2!G11+VolumeFractions!G$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>CPhi2!A$1*f!A12/xScaling2!A12+VolumeFractions!A$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="B12">
+        <f>CPhi2!B$1*f!B12/xScaling2!B12+VolumeFractions!B$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="C12">
+        <f>CPhi2!C$1*f!C12/xScaling2!C12+VolumeFractions!C$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="D12">
+        <f>CPhi2!D$1*f!D12/xScaling2!D12+VolumeFractions!D$1</f>
+        <v>0.57769999999999944</v>
+      </c>
+      <c r="E12">
+        <f>CPhi2!E$1*f!E12/xScaling2!E12+VolumeFractions!E$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="F12">
+        <f>CPhi2!F$1*f!F12/xScaling2!F12+VolumeFractions!F$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="G12">
+        <f>CPhi2!G$1*f!G12/xScaling2!G12+VolumeFractions!G$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>CPhi2!A$1*f!A13/xScaling2!A13+VolumeFractions!A$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="B13">
+        <f>CPhi2!B$1*f!B13/xScaling2!B13+VolumeFractions!B$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="C13">
+        <f>CPhi2!C$1*f!C13/xScaling2!C13+VolumeFractions!C$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="D13">
+        <f>CPhi2!D$1*f!D13/xScaling2!D13+VolumeFractions!D$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="E13">
+        <f>CPhi2!E$1*f!E13/xScaling2!E13+VolumeFractions!E$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="F13">
+        <f>CPhi2!F$1*f!F13/xScaling2!F13+VolumeFractions!F$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="G13">
+        <f>CPhi2!G$1*f!G13/xScaling2!G13+VolumeFractions!G$1</f>
+        <v>0.57770000000000021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>CPhi2!A$1*f!A14/xScaling2!A14+VolumeFractions!A$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="B14">
+        <f>CPhi2!B$1*f!B14/xScaling2!B14+VolumeFractions!B$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="C14">
+        <f>CPhi2!C$1*f!C14/xScaling2!C14+VolumeFractions!C$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="D14">
+        <f>CPhi2!D$1*f!D14/xScaling2!D14+VolumeFractions!D$1</f>
+        <v>0.57770000000000021</v>
+      </c>
+      <c r="E14">
+        <f>CPhi2!E$1*f!E14/xScaling2!E14+VolumeFractions!E$1</f>
+        <v>0.57770000000000032</v>
+      </c>
+      <c r="F14">
+        <f>CPhi2!F$1*f!F14/xScaling2!F14+VolumeFractions!F$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="G14">
+        <f>CPhi2!G$1*f!G14/xScaling2!G14+VolumeFractions!G$1</f>
+        <v>0.57770000000000021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>CPhi2!A$1*f!A15/xScaling2!A15+VolumeFractions!A$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="B15">
+        <f>CPhi2!B$1*f!B15/xScaling2!B15+VolumeFractions!B$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="C15">
+        <f>CPhi2!C$1*f!C15/xScaling2!C15+VolumeFractions!C$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="D15">
+        <f>CPhi2!D$1*f!D15/xScaling2!D15+VolumeFractions!D$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="E15">
+        <f>CPhi2!E$1*f!E15/xScaling2!E15+VolumeFractions!E$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="F15">
+        <f>CPhi2!F$1*f!F15/xScaling2!F15+VolumeFractions!F$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="G15">
+        <f>CPhi2!G$1*f!G15/xScaling2!G15+VolumeFractions!G$1</f>
+        <v>0.57770000000000021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>CPhi2!A$1*f!A16/xScaling2!A16+VolumeFractions!A$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="B16">
+        <f>CPhi2!B$1*f!B16/xScaling2!B16+VolumeFractions!B$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="C16">
+        <f>CPhi2!C$1*f!C16/xScaling2!C16+VolumeFractions!C$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="D16">
+        <f>CPhi2!D$1*f!D16/xScaling2!D16+VolumeFractions!D$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="E16">
+        <f>CPhi2!E$1*f!E16/xScaling2!E16+VolumeFractions!E$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="F16">
+        <f>CPhi2!F$1*f!F16/xScaling2!F16+VolumeFractions!F$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="G16">
+        <f>CPhi2!G$1*f!G16/xScaling2!G16+VolumeFractions!G$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>CPhi2!A$1*f!A17/xScaling2!A17+VolumeFractions!A$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="B17">
+        <f>CPhi2!B$1*f!B17/xScaling2!B17+VolumeFractions!B$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="C17">
+        <f>CPhi2!C$1*f!C17/xScaling2!C17+VolumeFractions!C$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="D17">
+        <f>CPhi2!D$1*f!D17/xScaling2!D17+VolumeFractions!D$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="E17">
+        <f>CPhi2!E$1*f!E17/xScaling2!E17+VolumeFractions!E$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="F17">
+        <f>CPhi2!F$1*f!F17/xScaling2!F17+VolumeFractions!F$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="G17">
+        <f>CPhi2!G$1*f!G17/xScaling2!G17+VolumeFractions!G$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>CPhi2!A$1*f!A18/xScaling2!A18+VolumeFractions!A$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="B18">
+        <f>CPhi2!B$1*f!B18/xScaling2!B18+VolumeFractions!B$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="C18">
+        <f>CPhi2!C$1*f!C18/xScaling2!C18+VolumeFractions!C$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="D18">
+        <f>CPhi2!D$1*f!D18/xScaling2!D18+VolumeFractions!D$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="E18">
+        <f>CPhi2!E$1*f!E18/xScaling2!E18+VolumeFractions!E$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="F18">
+        <f>CPhi2!F$1*f!F18/xScaling2!F18+VolumeFractions!F$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="G18">
+        <f>CPhi2!G$1*f!G18/xScaling2!G18+VolumeFractions!G$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>CPhi2!A$1*f!A19/xScaling2!A19+VolumeFractions!A$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="B19">
+        <f>CPhi2!B$1*f!B19/xScaling2!B19+VolumeFractions!B$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="C19">
+        <f>CPhi2!C$1*f!C19/xScaling2!C19+VolumeFractions!C$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="D19">
+        <f>CPhi2!D$1*f!D19/xScaling2!D19+VolumeFractions!D$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="E19">
+        <f>CPhi2!E$1*f!E19/xScaling2!E19+VolumeFractions!E$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="F19">
+        <f>CPhi2!F$1*f!F19/xScaling2!F19+VolumeFractions!F$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="G19">
+        <f>CPhi2!G$1*f!G19/xScaling2!G19+VolumeFractions!G$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>CPhi2!A$1*f!A20/xScaling2!A20+VolumeFractions!A$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="B20">
+        <f>CPhi2!B$1*f!B20/xScaling2!B20+VolumeFractions!B$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="C20">
+        <f>CPhi2!C$1*f!C20/xScaling2!C20+VolumeFractions!C$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="D20">
+        <f>CPhi2!D$1*f!D20/xScaling2!D20+VolumeFractions!D$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="E20">
+        <f>CPhi2!E$1*f!E20/xScaling2!E20+VolumeFractions!E$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="F20">
+        <f>CPhi2!F$1*f!F20/xScaling2!F20+VolumeFractions!F$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="G20">
+        <f>CPhi2!G$1*f!G20/xScaling2!G20+VolumeFractions!G$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>CPhi2!A$1*f!A21/xScaling2!A21+VolumeFractions!A$1</f>
+        <v>0.57769999999999955</v>
+      </c>
+      <c r="B21">
+        <f>CPhi2!B$1*f!B21/xScaling2!B21+VolumeFractions!B$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="C21">
+        <f>CPhi2!C$1*f!C21/xScaling2!C21+VolumeFractions!C$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="D21">
+        <f>CPhi2!D$1*f!D21/xScaling2!D21+VolumeFractions!D$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="E21">
+        <f>CPhi2!E$1*f!E21/xScaling2!E21+VolumeFractions!E$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="F21">
+        <f>CPhi2!F$1*f!F21/xScaling2!F21+VolumeFractions!F$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="G21">
+        <f>CPhi2!G$1*f!G21/xScaling2!G21+VolumeFractions!G$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>CPhi2!A$1*f!A22/xScaling2!A22+VolumeFractions!A$1</f>
+        <v>0.57769999999999944</v>
+      </c>
+      <c r="B22">
+        <f>CPhi2!B$1*f!B22/xScaling2!B22+VolumeFractions!B$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="C22">
+        <f>CPhi2!C$1*f!C22/xScaling2!C22+VolumeFractions!C$1</f>
+        <v>0.57769999999999944</v>
+      </c>
+      <c r="D22">
+        <f>CPhi2!D$1*f!D22/xScaling2!D22+VolumeFractions!D$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="E22">
+        <f>CPhi2!E$1*f!E22/xScaling2!E22+VolumeFractions!E$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="F22">
+        <f>CPhi2!F$1*f!F22/xScaling2!F22+VolumeFractions!F$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="G22">
+        <f>CPhi2!G$1*f!G22/xScaling2!G22+VolumeFractions!G$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>CPhi2!A$1*f!A23/xScaling2!A23+VolumeFractions!A$1</f>
+        <v>0.57770000000000032</v>
+      </c>
+      <c r="B23">
+        <f>CPhi2!B$1*f!B23/xScaling2!B23+VolumeFractions!B$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="C23">
+        <f>CPhi2!C$1*f!C23/xScaling2!C23+VolumeFractions!C$1</f>
+        <v>0.57769999999999955</v>
+      </c>
+      <c r="D23">
+        <f>CPhi2!D$1*f!D23/xScaling2!D23+VolumeFractions!D$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="E23">
+        <f>CPhi2!E$1*f!E23/xScaling2!E23+VolumeFractions!E$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="F23">
+        <f>CPhi2!F$1*f!F23/xScaling2!F23+VolumeFractions!F$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="G23">
+        <f>CPhi2!G$1*f!G23/xScaling2!G23+VolumeFractions!G$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>CPhi2!A$1*f!A24/xScaling2!A24+VolumeFractions!A$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="B24">
+        <f>CPhi2!B$1*f!B24/xScaling2!B24+VolumeFractions!B$1</f>
+        <v>0.5776999999999991</v>
+      </c>
+      <c r="C24">
+        <f>CPhi2!C$1*f!C24/xScaling2!C24+VolumeFractions!C$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="D24">
+        <f>CPhi2!D$1*f!D24/xScaling2!D24+VolumeFractions!D$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="E24">
+        <f>CPhi2!E$1*f!E24/xScaling2!E24+VolumeFractions!E$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="F24">
+        <f>CPhi2!F$1*f!F24/xScaling2!F24+VolumeFractions!F$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="G24">
+        <f>CPhi2!G$1*f!G24/xScaling2!G24+VolumeFractions!G$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>CPhi2!A$1*f!A25/xScaling2!A25+VolumeFractions!A$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="B25">
+        <f>CPhi2!B$1*f!B25/xScaling2!B25+VolumeFractions!B$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="C25">
+        <f>CPhi2!C$1*f!C25/xScaling2!C25+VolumeFractions!C$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="D25">
+        <f>CPhi2!D$1*f!D25/xScaling2!D25+VolumeFractions!D$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="E25">
+        <f>CPhi2!E$1*f!E25/xScaling2!E25+VolumeFractions!E$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="F25">
+        <f>CPhi2!F$1*f!F25/xScaling2!F25+VolumeFractions!F$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="G25">
+        <f>CPhi2!G$1*f!G25/xScaling2!G25+VolumeFractions!G$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>CPhi2!A$1*f!A26/xScaling2!A26+VolumeFractions!A$1</f>
+        <v>0.57769999999999944</v>
+      </c>
+      <c r="B26">
+        <f>CPhi2!B$1*f!B26/xScaling2!B26+VolumeFractions!B$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="C26">
+        <f>CPhi2!C$1*f!C26/xScaling2!C26+VolumeFractions!C$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="D26">
+        <f>CPhi2!D$1*f!D26/xScaling2!D26+VolumeFractions!D$1</f>
+        <v>0.57770000000000044</v>
+      </c>
+      <c r="E26">
+        <f>CPhi2!E$1*f!E26/xScaling2!E26+VolumeFractions!E$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="F26">
+        <f>CPhi2!F$1*f!F26/xScaling2!F26+VolumeFractions!F$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="G26">
+        <f>CPhi2!G$1*f!G26/xScaling2!G26+VolumeFractions!G$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>CPhi2!A$1*f!A27/xScaling2!A27+VolumeFractions!A$1</f>
+        <v>0.57769999999999944</v>
+      </c>
+      <c r="B27">
+        <f>CPhi2!B$1*f!B27/xScaling2!B27+VolumeFractions!B$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="C27">
+        <f>CPhi2!C$1*f!C27/xScaling2!C27+VolumeFractions!C$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="D27">
+        <f>CPhi2!D$1*f!D27/xScaling2!D27+VolumeFractions!D$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="E27">
+        <f>CPhi2!E$1*f!E27/xScaling2!E27+VolumeFractions!E$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="F27">
+        <f>CPhi2!F$1*f!F27/xScaling2!F27+VolumeFractions!F$1</f>
+        <v>0.57770000000000021</v>
+      </c>
+      <c r="G27">
+        <f>CPhi2!G$1*f!G27/xScaling2!G27+VolumeFractions!G$1</f>
+        <v>0.57770000000000021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>CPhi2!A$1*f!A28/xScaling2!A28+VolumeFractions!A$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="B28">
+        <f>CPhi2!B$1*f!B28/xScaling2!B28+VolumeFractions!B$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="C28">
+        <f>CPhi2!C$1*f!C28/xScaling2!C28+VolumeFractions!C$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="D28">
+        <f>CPhi2!D$1*f!D28/xScaling2!D28+VolumeFractions!D$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="E28">
+        <f>CPhi2!E$1*f!E28/xScaling2!E28+VolumeFractions!E$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="F28">
+        <f>CPhi2!F$1*f!F28/xScaling2!F28+VolumeFractions!F$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="G28">
+        <f>CPhi2!G$1*f!G28/xScaling2!G28+VolumeFractions!G$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>CPhi2!A$1*f!A29/xScaling2!A29+VolumeFractions!A$1</f>
+        <v>0.57769999999999877</v>
+      </c>
+      <c r="B29">
+        <f>CPhi2!B$1*f!B29/xScaling2!B29+VolumeFractions!B$1</f>
+        <v>0.57769999999999944</v>
+      </c>
+      <c r="C29">
+        <f>CPhi2!C$1*f!C29/xScaling2!C29+VolumeFractions!C$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="D29">
+        <f>CPhi2!D$1*f!D29/xScaling2!D29+VolumeFractions!D$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="E29">
+        <f>CPhi2!E$1*f!E29/xScaling2!E29+VolumeFractions!E$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="F29">
+        <f>CPhi2!F$1*f!F29/xScaling2!F29+VolumeFractions!F$1</f>
+        <v>0.57770000000000032</v>
+      </c>
+      <c r="G29">
+        <f>CPhi2!G$1*f!G29/xScaling2!G29+VolumeFractions!G$1</f>
+        <v>0.57770000000000021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>CPhi2!A$1*f!A30/xScaling2!A30+VolumeFractions!A$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="B30">
+        <f>CPhi2!B$1*f!B30/xScaling2!B30+VolumeFractions!B$1</f>
+        <v>0.57769999999999955</v>
+      </c>
+      <c r="C30">
+        <f>CPhi2!C$1*f!C30/xScaling2!C30+VolumeFractions!C$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="D30">
+        <f>CPhi2!D$1*f!D30/xScaling2!D30+VolumeFractions!D$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="E30">
+        <f>CPhi2!E$1*f!E30/xScaling2!E30+VolumeFractions!E$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="F30">
+        <f>CPhi2!F$1*f!F30/xScaling2!F30+VolumeFractions!F$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="G30">
+        <f>CPhi2!G$1*f!G30/xScaling2!G30+VolumeFractions!G$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>CPhi2!A$1*f!A31/xScaling2!A31+VolumeFractions!A$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="B31">
+        <f>CPhi2!B$1*f!B31/xScaling2!B31+VolumeFractions!B$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="C31">
+        <f>CPhi2!C$1*f!C31/xScaling2!C31+VolumeFractions!C$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="D31">
+        <f>CPhi2!D$1*f!D31/xScaling2!D31+VolumeFractions!D$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="E31">
+        <f>CPhi2!E$1*f!E31/xScaling2!E31+VolumeFractions!E$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="F31">
+        <f>CPhi2!F$1*f!F31/xScaling2!F31+VolumeFractions!F$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="G31">
+        <f>CPhi2!G$1*f!G31/xScaling2!G31+VolumeFractions!G$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>CPhi2!A$1*f!A32/xScaling2!A32+VolumeFractions!A$1</f>
+        <v>0.57770000000000032</v>
+      </c>
+      <c r="B32">
+        <f>CPhi2!B$1*f!B32/xScaling2!B32+VolumeFractions!B$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="C32">
+        <f>CPhi2!C$1*f!C32/xScaling2!C32+VolumeFractions!C$1</f>
+        <v>0.57769999999999955</v>
+      </c>
+      <c r="D32">
+        <f>CPhi2!D$1*f!D32/xScaling2!D32+VolumeFractions!D$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="E32">
+        <f>CPhi2!E$1*f!E32/xScaling2!E32+VolumeFractions!E$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="F32">
+        <f>CPhi2!F$1*f!F32/xScaling2!F32+VolumeFractions!F$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="G32">
+        <f>CPhi2!G$1*f!G32/xScaling2!G32+VolumeFractions!G$1</f>
+        <v>0.57770000000000021</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>CPhi2!A$1*f!A33/xScaling2!A33+VolumeFractions!A$1</f>
+        <v>0.57769999999999921</v>
+      </c>
+      <c r="B33">
+        <f>CPhi2!B$1*f!B33/xScaling2!B33+VolumeFractions!B$1</f>
+        <v>0.57769999999999955</v>
+      </c>
+      <c r="C33">
+        <f>CPhi2!C$1*f!C33/xScaling2!C33+VolumeFractions!C$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="D33">
+        <f>CPhi2!D$1*f!D33/xScaling2!D33+VolumeFractions!D$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="E33">
+        <f>CPhi2!E$1*f!E33/xScaling2!E33+VolumeFractions!E$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="F33">
+        <f>CPhi2!F$1*f!F33/xScaling2!F33+VolumeFractions!F$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="G33">
+        <f>CPhi2!G$1*f!G33/xScaling2!G33+VolumeFractions!G$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>CPhi2!A$1*f!A34/xScaling2!A34+VolumeFractions!A$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="B34">
+        <f>CPhi2!B$1*f!B34/xScaling2!B34+VolumeFractions!B$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="C34">
+        <f>CPhi2!C$1*f!C34/xScaling2!C34+VolumeFractions!C$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="D34">
+        <f>CPhi2!D$1*f!D34/xScaling2!D34+VolumeFractions!D$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="E34">
+        <f>CPhi2!E$1*f!E34/xScaling2!E34+VolumeFractions!E$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="F34">
+        <f>CPhi2!F$1*f!F34/xScaling2!F34+VolumeFractions!F$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="G34">
+        <f>CPhi2!G$1*f!G34/xScaling2!G34+VolumeFractions!G$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>CPhi2!A$1*f!A35/xScaling2!A35+VolumeFractions!A$1</f>
+        <v>0.57769999999999921</v>
+      </c>
+      <c r="B35">
+        <f>CPhi2!B$1*f!B35/xScaling2!B35+VolumeFractions!B$1</f>
+        <v>0.57770000000000021</v>
+      </c>
+      <c r="C35">
+        <f>CPhi2!C$1*f!C35/xScaling2!C35+VolumeFractions!C$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="D35">
+        <f>CPhi2!D$1*f!D35/xScaling2!D35+VolumeFractions!D$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="E35">
+        <f>CPhi2!E$1*f!E35/xScaling2!E35+VolumeFractions!E$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="F35">
+        <f>CPhi2!F$1*f!F35/xScaling2!F35+VolumeFractions!F$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="G35">
+        <f>CPhi2!G$1*f!G35/xScaling2!G35+VolumeFractions!G$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>CPhi2!A$1*f!A36/xScaling2!A36+VolumeFractions!A$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="B36">
+        <f>CPhi2!B$1*f!B36/xScaling2!B36+VolumeFractions!B$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="C36">
+        <f>CPhi2!C$1*f!C36/xScaling2!C36+VolumeFractions!C$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="D36">
+        <f>CPhi2!D$1*f!D36/xScaling2!D36+VolumeFractions!D$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="E36">
+        <f>CPhi2!E$1*f!E36/xScaling2!E36+VolumeFractions!E$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="F36">
+        <f>CPhi2!F$1*f!F36/xScaling2!F36+VolumeFractions!F$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="G36">
+        <f>CPhi2!G$1*f!G36/xScaling2!G36+VolumeFractions!G$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>CPhi2!A$1*f!A37/xScaling2!A37+VolumeFractions!A$1</f>
+        <v>0.57770000000000032</v>
+      </c>
+      <c r="B37">
+        <f>CPhi2!B$1*f!B37/xScaling2!B37+VolumeFractions!B$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="C37">
+        <f>CPhi2!C$1*f!C37/xScaling2!C37+VolumeFractions!C$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="D37">
+        <f>CPhi2!D$1*f!D37/xScaling2!D37+VolumeFractions!D$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="E37">
+        <f>CPhi2!E$1*f!E37/xScaling2!E37+VolumeFractions!E$1</f>
+        <v>0.57770000000000021</v>
+      </c>
+      <c r="F37">
+        <f>CPhi2!F$1*f!F37/xScaling2!F37+VolumeFractions!F$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="G37">
+        <f>CPhi2!G$1*f!G37/xScaling2!G37+VolumeFractions!G$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>CPhi2!A$1*f!A38/xScaling2!A38+VolumeFractions!A$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="B38">
+        <f>CPhi2!B$1*f!B38/xScaling2!B38+VolumeFractions!B$1</f>
+        <v>0.57769999999999933</v>
+      </c>
+      <c r="C38">
+        <f>CPhi2!C$1*f!C38/xScaling2!C38+VolumeFractions!C$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="D38">
+        <f>CPhi2!D$1*f!D38/xScaling2!D38+VolumeFractions!D$1</f>
+        <v>0.57769999999999955</v>
+      </c>
+      <c r="E38">
+        <f>CPhi2!E$1*f!E38/xScaling2!E38+VolumeFractions!E$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="F38">
+        <f>CPhi2!F$1*f!F38/xScaling2!F38+VolumeFractions!F$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="G38">
+        <f>CPhi2!G$1*f!G38/xScaling2!G38+VolumeFractions!G$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="e">
+        <f>CPhi2!A$1*f!A39/xScaling2!A39+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B39">
+        <f>CPhi2!B$1*f!B39/xScaling2!B39+VolumeFractions!B$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="C39" t="e">
+        <f>CPhi2!C$1*f!C39/xScaling2!C39+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D39">
+        <f>CPhi2!D$1*f!D39/xScaling2!D39+VolumeFractions!D$1</f>
+        <v>0.57769999999999944</v>
+      </c>
+      <c r="E39">
+        <f>CPhi2!E$1*f!E39/xScaling2!E39+VolumeFractions!E$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="F39">
+        <f>CPhi2!F$1*f!F39/xScaling2!F39+VolumeFractions!F$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="G39">
+        <f>CPhi2!G$1*f!G39/xScaling2!G39+VolumeFractions!G$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="e">
+        <f>CPhi2!A$1*f!A40/xScaling2!A40+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B40">
+        <f>CPhi2!B$1*f!B40/xScaling2!B40+VolumeFractions!B$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="C40" t="e">
+        <f>CPhi2!C$1*f!C40/xScaling2!C40+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D40">
+        <f>CPhi2!D$1*f!D40/xScaling2!D40+VolumeFractions!D$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="E40">
+        <f>CPhi2!E$1*f!E40/xScaling2!E40+VolumeFractions!E$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="F40">
+        <f>CPhi2!F$1*f!F40/xScaling2!F40+VolumeFractions!F$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="G40">
+        <f>CPhi2!G$1*f!G40/xScaling2!G40+VolumeFractions!G$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="e">
+        <f>CPhi2!A$1*f!A41/xScaling2!A41+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B41">
+        <f>CPhi2!B$1*f!B41/xScaling2!B41+VolumeFractions!B$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="C41" t="e">
+        <f>CPhi2!C$1*f!C41/xScaling2!C41+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D41">
+        <f>CPhi2!D$1*f!D41/xScaling2!D41+VolumeFractions!D$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="E41">
+        <f>CPhi2!E$1*f!E41/xScaling2!E41+VolumeFractions!E$1</f>
+        <v>0.57770000000000032</v>
+      </c>
+      <c r="F41">
+        <f>CPhi2!F$1*f!F41/xScaling2!F41+VolumeFractions!F$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="G41">
+        <f>CPhi2!G$1*f!G41/xScaling2!G41+VolumeFractions!G$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="e">
+        <f>CPhi2!A$1*f!A42/xScaling2!A42+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B42">
+        <f>CPhi2!B$1*f!B42/xScaling2!B42+VolumeFractions!B$1</f>
+        <v>0.57769999999999955</v>
+      </c>
+      <c r="C42" t="e">
+        <f>CPhi2!C$1*f!C42/xScaling2!C42+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D42">
+        <f>CPhi2!D$1*f!D42/xScaling2!D42+VolumeFractions!D$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="E42">
+        <f>CPhi2!E$1*f!E42/xScaling2!E42+VolumeFractions!E$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="F42">
+        <f>CPhi2!F$1*f!F42/xScaling2!F42+VolumeFractions!F$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="G42">
+        <f>CPhi2!G$1*f!G42/xScaling2!G42+VolumeFractions!G$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="e">
+        <f>CPhi2!A$1*f!A43/xScaling2!A43+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B43">
+        <f>CPhi2!B$1*f!B43/xScaling2!B43+VolumeFractions!B$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="C43" t="e">
+        <f>CPhi2!C$1*f!C43/xScaling2!C43+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D43">
+        <f>CPhi2!D$1*f!D43/xScaling2!D43+VolumeFractions!D$1</f>
+        <v>0.57769999999999977</v>
+      </c>
+      <c r="E43">
+        <f>CPhi2!E$1*f!E43/xScaling2!E43+VolumeFractions!E$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="F43">
+        <f>CPhi2!F$1*f!F43/xScaling2!F43+VolumeFractions!F$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="G43">
+        <f>CPhi2!G$1*f!G43/xScaling2!G43+VolumeFractions!G$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="e">
+        <f>CPhi2!A$1*f!A44/xScaling2!A44+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B44">
+        <f>CPhi2!B$1*f!B44/xScaling2!B44+VolumeFractions!B$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="C44" t="e">
+        <f>CPhi2!C$1*f!C44/xScaling2!C44+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D44">
+        <f>CPhi2!D$1*f!D44/xScaling2!D44+VolumeFractions!D$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="E44">
+        <f>CPhi2!E$1*f!E44/xScaling2!E44+VolumeFractions!E$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="F44">
+        <f>CPhi2!F$1*f!F44/xScaling2!F44+VolumeFractions!F$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="G44">
+        <f>CPhi2!G$1*f!G44/xScaling2!G44+VolumeFractions!G$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="e">
+        <f>CPhi2!A$1*f!A45/xScaling2!A45+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B45">
+        <f>CPhi2!B$1*f!B45/xScaling2!B45+VolumeFractions!B$1</f>
+        <v>0.57770000000000032</v>
+      </c>
+      <c r="C45" t="e">
+        <f>CPhi2!C$1*f!C45/xScaling2!C45+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D45">
+        <f>CPhi2!D$1*f!D45/xScaling2!D45+VolumeFractions!D$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="E45">
+        <f>CPhi2!E$1*f!E45/xScaling2!E45+VolumeFractions!E$1</f>
+        <v>0.57770000000000044</v>
+      </c>
+      <c r="F45">
+        <f>CPhi2!F$1*f!F45/xScaling2!F45+VolumeFractions!F$1</f>
+        <v>0.57770000000000021</v>
+      </c>
+      <c r="G45">
+        <f>CPhi2!G$1*f!G45/xScaling2!G45+VolumeFractions!G$1</f>
+        <v>0.57770000000000021</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="e">
+        <f>CPhi2!A$1*f!A46/xScaling2!A46+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B46">
+        <f>CPhi2!B$1*f!B46/xScaling2!B46+VolumeFractions!B$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="C46" t="e">
+        <f>CPhi2!C$1*f!C46/xScaling2!C46+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D46">
+        <f>CPhi2!D$1*f!D46/xScaling2!D46+VolumeFractions!D$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="E46">
+        <f>CPhi2!E$1*f!E46/xScaling2!E46+VolumeFractions!E$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="F46">
+        <f>CPhi2!F$1*f!F46/xScaling2!F46+VolumeFractions!F$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="G46">
+        <f>CPhi2!G$1*f!G46/xScaling2!G46+VolumeFractions!G$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="e">
+        <f>CPhi2!A$1*f!A47/xScaling2!A47+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B47">
+        <f>CPhi2!B$1*f!B47/xScaling2!B47+VolumeFractions!B$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="C47" t="e">
+        <f>CPhi2!C$1*f!C47/xScaling2!C47+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D47">
+        <f>CPhi2!D$1*f!D47/xScaling2!D47+VolumeFractions!D$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="E47">
+        <f>CPhi2!E$1*f!E47/xScaling2!E47+VolumeFractions!E$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="F47">
+        <f>CPhi2!F$1*f!F47/xScaling2!F47+VolumeFractions!F$1</f>
+        <v>0.5777000000000001</v>
+      </c>
+      <c r="G47">
+        <f>CPhi2!G$1*f!G47/xScaling2!G47+VolumeFractions!G$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="e">
+        <f>CPhi2!A$1*f!A48/xScaling2!A48+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B48">
+        <f>CPhi2!B$1*f!B48/xScaling2!B48+VolumeFractions!B$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="C48" t="e">
+        <f>CPhi2!C$1*f!C48/xScaling2!C48+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D48">
+        <f>CPhi2!D$1*f!D48/xScaling2!D48+VolumeFractions!D$1</f>
+        <v>0.57770000000000021</v>
+      </c>
+      <c r="E48">
+        <f>CPhi2!E$1*f!E48/xScaling2!E48+VolumeFractions!E$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="F48" t="e">
+        <f>CPhi2!F$1*f!F48/xScaling2!F48+VolumeFractions!F$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G48" t="e">
+        <f>CPhi2!G$1*f!G48/xScaling2!G48+VolumeFractions!G$1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="e">
+        <f>CPhi2!A$1*f!A49/xScaling2!A49+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B49" t="e">
+        <f>CPhi2!B$1*f!B49/xScaling2!B49+VolumeFractions!B$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C49" t="e">
+        <f>CPhi2!C$1*f!C49/xScaling2!C49+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D49">
+        <f>CPhi2!D$1*f!D49/xScaling2!D49+VolumeFractions!D$1</f>
+        <v>0.57769999999999988</v>
+      </c>
+      <c r="E49" t="e">
+        <f>CPhi2!E$1*f!E49/xScaling2!E49+VolumeFractions!E$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F49" t="e">
+        <f>CPhi2!F$1*f!F49/xScaling2!F49+VolumeFractions!F$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G49" t="e">
+        <f>CPhi2!G$1*f!G49/xScaling2!G49+VolumeFractions!G$1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="e">
+        <f>CPhi2!A$1*f!A50/xScaling2!A50+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B50" t="e">
+        <f>CPhi2!B$1*f!B50/xScaling2!B50+VolumeFractions!B$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C50" t="e">
+        <f>CPhi2!C$1*f!C50/xScaling2!C50+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D50">
+        <f>CPhi2!D$1*f!D50/xScaling2!D50+VolumeFractions!D$1</f>
+        <v>0.57769999999999966</v>
+      </c>
+      <c r="E50" t="e">
+        <f>CPhi2!E$1*f!E50/xScaling2!E50+VolumeFractions!E$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" t="e">
+        <f>CPhi2!F$1*f!F50/xScaling2!F50+VolumeFractions!F$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G50" t="e">
+        <f>CPhi2!G$1*f!G50/xScaling2!G50+VolumeFractions!G$1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="e">
+        <f>CPhi2!A$1*f!A51/xScaling2!A51+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B51" t="e">
+        <f>CPhi2!B$1*f!B51/xScaling2!B51+VolumeFractions!B$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C51" t="e">
+        <f>CPhi2!C$1*f!C51/xScaling2!C51+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D51">
+        <f>CPhi2!D$1*f!D51/xScaling2!D51+VolumeFractions!D$1</f>
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="E51" t="e">
+        <f>CPhi2!E$1*f!E51/xScaling2!E51+VolumeFractions!E$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F51" t="e">
+        <f>CPhi2!F$1*f!F51/xScaling2!F51+VolumeFractions!F$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G51" t="e">
+        <f>CPhi2!G$1*f!G51/xScaling2!G51+VolumeFractions!G$1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8566,1347 +10115,6 @@
       </c>
       <c r="D51">
         <v>0.29647670739999998</v>
-      </c>
-      <c r="E51" t="s">
-        <v>0</v>
-      </c>
-      <c r="F51" t="s">
-        <v>0</v>
-      </c>
-      <c r="G51" t="s">
-        <v>0</v>
-      </c>
-      <c r="H51" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:H51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>1.09783633506351E-2</v>
-      </c>
-      <c r="G1">
-        <v>1.9302676018740201E-3</v>
-      </c>
-      <c r="H1">
-        <v>4.3032553251362598E-4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1.11830613479667E-2</v>
-      </c>
-      <c r="G2">
-        <v>2.1117977586439201E-3</v>
-      </c>
-      <c r="H2">
-        <v>6.0801505588621596E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1.14427772506116E-2</v>
-      </c>
-      <c r="G3">
-        <v>2.3421188616218501E-3</v>
-      </c>
-      <c r="H3">
-        <v>8.3346325545272104E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1.1772569539301E-2</v>
-      </c>
-      <c r="G4">
-        <v>2.6345850637719101E-3</v>
-      </c>
-      <c r="H4">
-        <v>1.1197417503725101E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>5.6372128383567997E-2</v>
-      </c>
-      <c r="C5">
-        <v>3.4536576284127402E-2</v>
-      </c>
-      <c r="D5">
-        <v>1.3344956192673601E-2</v>
-      </c>
-      <c r="E5">
-        <v>1.24092722819299E-2</v>
-      </c>
-      <c r="F5">
-        <v>1.21917710048413E-2</v>
-      </c>
-      <c r="G5">
-        <v>3.0063410591882099E-3</v>
-      </c>
-      <c r="H5">
-        <v>1.48363250445896E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>5.7157104254757E-2</v>
-      </c>
-      <c r="C6">
-        <v>3.5184997499435003E-2</v>
-      </c>
-      <c r="D6">
-        <v>1.38230519815759E-2</v>
-      </c>
-      <c r="E6">
-        <v>1.29189136269575E-2</v>
-      </c>
-      <c r="F6">
-        <v>1.27252030361254E-2</v>
-      </c>
-      <c r="G6">
-        <v>3.4793989372691901E-3</v>
-      </c>
-      <c r="H6">
-        <v>1.9466818973507801E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>5.8152456195198203E-2</v>
-      </c>
-      <c r="C7">
-        <v>3.6007064284351097E-2</v>
-      </c>
-      <c r="D7">
-        <v>1.4419717683544799E-2</v>
-      </c>
-      <c r="E7">
-        <v>1.35651404987896E-2</v>
-      </c>
-      <c r="F7">
-        <v>1.3405154786825701E-2</v>
-      </c>
-      <c r="G7">
-        <v>4.0823933461527498E-3</v>
-      </c>
-      <c r="H7">
-        <v>2.5369187539556999E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.16284050665546301</v>
-      </c>
-      <c r="B8">
-        <v>5.9416949357970698E-2</v>
-      </c>
-      <c r="C8">
-        <v>3.7050947315190798E-2</v>
-      </c>
-      <c r="D8">
-        <v>1.5165962761588899E-2</v>
-      </c>
-      <c r="E8">
-        <v>1.4386105855695899E-2</v>
-      </c>
-      <c r="F8">
-        <v>1.4273665970307299E-2</v>
-      </c>
-      <c r="G8">
-        <v>4.8526059195491602E-3</v>
-      </c>
-      <c r="H8">
-        <v>3.2908359404861501E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.165752612041278</v>
-      </c>
-      <c r="B9">
-        <v>6.1026586098588201E-2</v>
-      </c>
-      <c r="C9">
-        <v>3.83805714881282E-2</v>
-      </c>
-      <c r="D9">
-        <v>1.6100616836530499E-2</v>
-      </c>
-      <c r="E9">
-        <v>1.5431153816535099E-2</v>
-      </c>
-      <c r="F9">
-        <v>1.5385464703307801E-2</v>
-      </c>
-      <c r="G9">
-        <v>5.8385706135332402E-3</v>
-      </c>
-      <c r="H9">
-        <v>4.2559405801428796E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.16947080667922801</v>
-      </c>
-      <c r="B10">
-        <v>6.3081956457405802E-2</v>
-      </c>
-      <c r="C10">
-        <v>4.00781170993239E-2</v>
-      </c>
-      <c r="D10">
-        <v>1.7274179710641002E-2</v>
-      </c>
-      <c r="E10">
-        <v>1.6765591921761001E-2</v>
-      </c>
-      <c r="F10">
-        <v>1.6813514720239901E-2</v>
-      </c>
-      <c r="G10">
-        <v>7.1049930838471302E-3</v>
-      </c>
-      <c r="H10">
-        <v>5.4955693511556398E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.17423560771504301</v>
-      </c>
-      <c r="B11">
-        <v>6.5715902643659799E-2</v>
-      </c>
-      <c r="C11">
-        <v>4.2253598991841897E-2</v>
-      </c>
-      <c r="D11">
-        <v>1.8752339813348201E-2</v>
-      </c>
-      <c r="E11">
-        <v>1.8475667258292399E-2</v>
-      </c>
-      <c r="F11">
-        <v>1.8654858565982601E-2</v>
-      </c>
-      <c r="G11">
-        <v>8.7379325426712902E-3</v>
-      </c>
-      <c r="H11">
-        <v>7.0939607110141901E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0.18036974373815101</v>
-      </c>
-      <c r="B12">
-        <v>6.9106762619418602E-2</v>
-      </c>
-      <c r="C12">
-        <v>4.5054388749656199E-2</v>
-      </c>
-      <c r="D12">
-        <v>2.06207519279108E-2</v>
-      </c>
-      <c r="E12">
-        <v>2.0677164784870101E-2</v>
-      </c>
-      <c r="F12">
-        <v>2.10411430537704E-2</v>
-      </c>
-      <c r="G12">
-        <v>1.0854135938956001E-2</v>
-      </c>
-      <c r="H12">
-        <v>9.1653915935530992E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0.188312686453634</v>
-      </c>
-      <c r="B13">
-        <v>7.3497609557648502E-2</v>
-      </c>
-      <c r="C13">
-        <v>4.8680822197769501E-2</v>
-      </c>
-      <c r="D13">
-        <v>2.29933568064026E-2</v>
-      </c>
-      <c r="E13">
-        <v>2.3527898446300901E-2</v>
-      </c>
-      <c r="F13">
-        <v>2.4153673091311199E-2</v>
-      </c>
-      <c r="G13">
-        <v>1.36143879835846E-2</v>
-      </c>
-      <c r="H13">
-        <v>1.18672449876423E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0.19867311765572701</v>
-      </c>
-      <c r="B14">
-        <v>7.9224886114957899E-2</v>
-      </c>
-      <c r="C14">
-        <v>5.3411794710123701E-2</v>
-      </c>
-      <c r="D14">
-        <v>2.6023110341522201E-2</v>
-      </c>
-      <c r="E14">
-        <v>2.72463018203952E-2</v>
-      </c>
-      <c r="F14">
-        <v>2.8246509797965901E-2</v>
-      </c>
-      <c r="G14">
-        <v>1.7243995007971899E-2</v>
-      </c>
-      <c r="H14">
-        <v>1.5420060418803699E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0.212310400026719</v>
-      </c>
-      <c r="B15">
-        <v>8.6763844758226197E-2</v>
-      </c>
-      <c r="C15">
-        <v>5.96382915369899E-2</v>
-      </c>
-      <c r="D15">
-        <v>2.99198846789849E-2</v>
-      </c>
-      <c r="E15">
-        <v>3.2140930004625097E-2</v>
-      </c>
-      <c r="F15">
-        <v>3.3682168632222599E-2</v>
-      </c>
-      <c r="G15">
-        <v>2.20644427563302E-2</v>
-      </c>
-      <c r="H15">
-        <v>2.0138521957588199E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0.23047338094103401</v>
-      </c>
-      <c r="B16">
-        <v>9.6803046057718597E-2</v>
-      </c>
-      <c r="C16">
-        <v>6.7931725506558405E-2</v>
-      </c>
-      <c r="D16">
-        <v>3.4976652423801401E-2</v>
-      </c>
-      <c r="E16">
-        <v>3.8658827230594099E-2</v>
-      </c>
-      <c r="F16">
-        <v>4.0998851392194002E-2</v>
-      </c>
-      <c r="G16">
-        <v>2.8553019028534399E-2</v>
-      </c>
-      <c r="H16">
-        <v>2.6489819426229501E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0.25501768769032701</v>
-      </c>
-      <c r="B17">
-        <v>0.110367098996455</v>
-      </c>
-      <c r="C17">
-        <v>7.9138349116691695E-2</v>
-      </c>
-      <c r="D17">
-        <v>4.1606204848392003E-2</v>
-      </c>
-      <c r="E17">
-        <v>4.74652153470232E-2</v>
-      </c>
-      <c r="F17">
-        <v>5.1008135761680402E-2</v>
-      </c>
-      <c r="G17">
-        <v>3.7429446665510201E-2</v>
-      </c>
-      <c r="H17">
-        <v>3.5178448490021101E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0.288790894781708</v>
-      </c>
-      <c r="B18">
-        <v>0.12903166542417899</v>
-      </c>
-      <c r="C18">
-        <v>9.4561396008122994E-2</v>
-      </c>
-      <c r="D18">
-        <v>5.04236936967098E-2</v>
-      </c>
-      <c r="E18">
-        <v>5.9583084300335702E-2</v>
-      </c>
-      <c r="F18">
-        <v>6.4984052500238504E-2</v>
-      </c>
-      <c r="G18">
-        <v>4.9823560870956997E-2</v>
-      </c>
-      <c r="H18">
-        <v>4.7310340430063803E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0.336362478232269</v>
-      </c>
-      <c r="B19">
-        <v>0.15532594978930001</v>
-      </c>
-      <c r="C19">
-        <v>0.116278087851797</v>
-      </c>
-      <c r="D19">
-        <v>6.2336656013604101E-2</v>
-      </c>
-      <c r="E19">
-        <v>7.6654506419436705E-2</v>
-      </c>
-      <c r="F19">
-        <v>8.5024532444087197E-2</v>
-      </c>
-      <c r="G19">
-        <v>6.7595847426640598E-2</v>
-      </c>
-      <c r="H19">
-        <v>6.4706618731765406E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>0.405346823440282</v>
-      </c>
-      <c r="B20">
-        <v>0.19344543691536201</v>
-      </c>
-      <c r="C20">
-        <v>0.14777169549230801</v>
-      </c>
-      <c r="D20">
-        <v>7.8777262338627904E-2</v>
-      </c>
-      <c r="E20">
-        <v>0.101403377567869</v>
-      </c>
-      <c r="F20">
-        <v>0.114729964298319</v>
-      </c>
-      <c r="G20">
-        <v>9.3939200911833998E-2</v>
-      </c>
-      <c r="H20">
-        <v>9.0492625906062593E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>0.50912526456047902</v>
-      </c>
-      <c r="B21">
-        <v>0.25078188590339501</v>
-      </c>
-      <c r="C21">
-        <v>0.19514318398632999</v>
-      </c>
-      <c r="D21">
-        <v>0.102057163793234</v>
-      </c>
-      <c r="E21">
-        <v>0.13862875742203301</v>
-      </c>
-      <c r="F21">
-        <v>0.160664682897523</v>
-      </c>
-      <c r="G21">
-        <v>0.13467500085709999</v>
-      </c>
-      <c r="H21">
-        <v>0.130366578560943</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0.67264735078850801</v>
-      </c>
-      <c r="B22">
-        <v>0.34109900862312098</v>
-      </c>
-      <c r="C22">
-        <v>0.26978342205099298</v>
-      </c>
-      <c r="D22">
-        <v>0.13608522807260701</v>
-      </c>
-      <c r="E22">
-        <v>0.19726666158101899</v>
-      </c>
-      <c r="F22">
-        <v>0.23558021078799901</v>
-      </c>
-      <c r="G22">
-        <v>0.20111154493540301</v>
-      </c>
-      <c r="H22">
-        <v>0.195397524723569</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>0.94581050727996796</v>
-      </c>
-      <c r="B23">
-        <v>0.49195066013135402</v>
-      </c>
-      <c r="C23">
-        <v>0.39443185788285201</v>
-      </c>
-      <c r="D23">
-        <v>0.187841562962033</v>
-      </c>
-      <c r="E23">
-        <v>0.29520628163307</v>
-      </c>
-      <c r="F23">
-        <v>0.36634452287258301</v>
-      </c>
-      <c r="G23">
-        <v>0.317075874738662</v>
-      </c>
-      <c r="H23">
-        <v>0.30890839728389402</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1.43704605867526</v>
-      </c>
-      <c r="B24">
-        <v>0.76310764700407197</v>
-      </c>
-      <c r="C24">
-        <v>0.61856821006409102</v>
-      </c>
-      <c r="D24">
-        <v>0.27053037587897899</v>
-      </c>
-      <c r="E24">
-        <v>0.471253490949329</v>
-      </c>
-      <c r="F24">
-        <v>0.61504453262062397</v>
-      </c>
-      <c r="G24">
-        <v>0.53762787010143598</v>
-      </c>
-      <c r="H24">
-        <v>0.52479417423809305</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2.4065505285811999</v>
-      </c>
-      <c r="B25">
-        <v>1.2980687928869601</v>
-      </c>
-      <c r="C25">
-        <v>1.0608678798181499</v>
-      </c>
-      <c r="D25">
-        <v>0.41097134725262202</v>
-      </c>
-      <c r="E25">
-        <v>0.81857412580178102</v>
-      </c>
-      <c r="F25">
-        <v>1.14276323332852</v>
-      </c>
-      <c r="G25">
-        <v>1.0056190557443001</v>
-      </c>
-      <c r="H25">
-        <v>0.98288407070011397</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>4.5593441649896098</v>
-      </c>
-      <c r="B26">
-        <v>2.4853077234586198</v>
-      </c>
-      <c r="C26">
-        <v>2.0423391583759098</v>
-      </c>
-      <c r="D26">
-        <v>0.66830120048029396</v>
-      </c>
-      <c r="E26">
-        <v>1.5893825896709799</v>
-      </c>
-      <c r="F26">
-        <v>2.42876154400963</v>
-      </c>
-      <c r="G26">
-        <v>2.1460673160448098</v>
-      </c>
-      <c r="H26">
-        <v>2.09920386797091</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>10.1067562099818</v>
-      </c>
-      <c r="B27">
-        <v>5.5416770256536001</v>
-      </c>
-      <c r="C27">
-        <v>4.5712648373947102</v>
-      </c>
-      <c r="D27">
-        <v>1.1868123421228001</v>
-      </c>
-      <c r="E27">
-        <v>3.57371385288817</v>
-      </c>
-      <c r="F27">
-        <v>6.1686701084934601</v>
-      </c>
-      <c r="G27">
-        <v>5.4626908143988802</v>
-      </c>
-      <c r="H27">
-        <v>5.3456575653359701</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27.360321087529499</v>
-      </c>
-      <c r="B28">
-        <v>15.043682782438299</v>
-      </c>
-      <c r="C28">
-        <v>12.434899703483101</v>
-      </c>
-      <c r="D28">
-        <v>2.3615703257946801</v>
-      </c>
-      <c r="E28">
-        <v>9.7428397739332606</v>
-      </c>
-      <c r="F28">
-        <v>19.791944875983202</v>
-      </c>
-      <c r="G28">
-        <v>17.544075275900099</v>
-      </c>
-      <c r="H28">
-        <v>17.171436184402602</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>95.519669187541496</v>
-      </c>
-      <c r="B29">
-        <v>52.542632817105201</v>
-      </c>
-      <c r="C29">
-        <v>43.483156884014797</v>
-      </c>
-      <c r="D29">
-        <v>5.4438085619447802</v>
-      </c>
-      <c r="E29">
-        <v>34.088830567051701</v>
-      </c>
-      <c r="F29">
-        <v>85.883689854876295</v>
-      </c>
-      <c r="G29">
-        <v>76.155517418062303</v>
-      </c>
-      <c r="H29">
-        <v>74.542836086969203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>460.17117357056702</v>
-      </c>
-      <c r="B30">
-        <v>252.95025159063599</v>
-      </c>
-      <c r="C30">
-        <v>209.528760900609</v>
-      </c>
-      <c r="D30">
-        <v>15.1554443924972</v>
-      </c>
-      <c r="E30">
-        <v>164.20239473406301</v>
-      </c>
-      <c r="F30">
-        <v>548.591723767536</v>
-      </c>
-      <c r="G30">
-        <v>486.49398203337</v>
-      </c>
-      <c r="H30">
-        <v>476.19977009909502</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>3328.8305910198001</v>
-      </c>
-      <c r="B31">
-        <v>1827.24520978241</v>
-      </c>
-      <c r="C31">
-        <v>1515.27840418294</v>
-      </c>
-      <c r="D31">
-        <v>53.594477654665901</v>
-      </c>
-      <c r="E31">
-        <v>1186.3048942002199</v>
-      </c>
-      <c r="F31">
-        <v>5723.9276918491696</v>
-      </c>
-      <c r="G31">
-        <v>5076.0823603753197</v>
-      </c>
-      <c r="H31">
-        <v>4968.6862303941098</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>40189.450877160103</v>
-      </c>
-      <c r="B32">
-        <v>22025.115665363701</v>
-      </c>
-      <c r="C32">
-        <v>18287.764617829202</v>
-      </c>
-      <c r="D32">
-        <v>255.92555382947799</v>
-      </c>
-      <c r="E32">
-        <v>14299.663206835199</v>
-      </c>
-      <c r="F32">
-        <v>111249.592222394</v>
-      </c>
-      <c r="G32">
-        <v>98658.289686274395</v>
-      </c>
-      <c r="H32">
-        <v>96570.974862649193</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>924788.02102598199</v>
-      </c>
-      <c r="B33">
-        <v>505858.67881847598</v>
-      </c>
-      <c r="C33">
-        <v>420759.68789300602</v>
-      </c>
-      <c r="D33">
-        <v>1777.4174677414701</v>
-      </c>
-      <c r="E33">
-        <v>328425.99109168397</v>
-      </c>
-      <c r="F33">
-        <v>4747286.5974043999</v>
-      </c>
-      <c r="G33">
-        <v>4209985.8811264103</v>
-      </c>
-      <c r="H33">
-        <v>4120915.21138319</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>47931757.054839</v>
-      </c>
-      <c r="B34">
-        <v>26166726.895047199</v>
-      </c>
-      <c r="C34">
-        <v>21806974.625187799</v>
-      </c>
-      <c r="D34">
-        <v>19656.064859969902</v>
-      </c>
-      <c r="E34">
-        <v>16988606.0963526</v>
-      </c>
-      <c r="F34">
-        <v>548231715.77684104</v>
-      </c>
-      <c r="G34">
-        <v>486182525.510539</v>
-      </c>
-      <c r="H34">
-        <v>475896362.16363603</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>6902361582.7330399</v>
-      </c>
-      <c r="B35">
-        <v>3758946639.5856199</v>
-      </c>
-      <c r="C35">
-        <v>3141874172.2862301</v>
-      </c>
-      <c r="D35">
-        <v>387184.04718682199</v>
-      </c>
-      <c r="E35">
-        <v>2440475805.1535902</v>
-      </c>
-      <c r="F35">
-        <v>222967218460.18399</v>
-      </c>
-      <c r="G35">
-        <v>197731656632.01801</v>
-      </c>
-      <c r="H35">
-        <v>193548248113.69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>3602171204531.5601</v>
-      </c>
-      <c r="B36">
-        <v>1957312455332.23</v>
-      </c>
-      <c r="C36">
-        <v>1641314647155.6799</v>
-      </c>
-      <c r="D36">
-        <v>15616287.2698179</v>
-      </c>
-      <c r="E36">
-        <v>1270774540959.6699</v>
-      </c>
-      <c r="F36">
-        <v>446982353517069</v>
-      </c>
-      <c r="G36">
-        <v>396392626039754</v>
-      </c>
-      <c r="H36">
-        <v>388006147533369</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>9505883087639930</v>
-      </c>
-      <c r="B37" s="1">
-        <v>5138729660488730</v>
-      </c>
-      <c r="C37" s="1">
-        <v>4334767850108710</v>
-      </c>
-      <c r="D37">
-        <v>1529154355.77175</v>
-      </c>
-      <c r="E37" s="1">
-        <v>3336292479840750</v>
-      </c>
-      <c r="F37" s="1">
-        <v>6.7074543498318705E+18</v>
-      </c>
-      <c r="G37" s="1">
-        <v>5.9483006943138703E+18</v>
-      </c>
-      <c r="H37" s="1">
-        <v>5.8224525007670497E+18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>1.92524220314732E+20</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1.0359903068550999E+20</v>
-      </c>
-      <c r="C38" s="1">
-        <v>8.8060255327863603E+19</v>
-      </c>
-      <c r="D38">
-        <v>450844345839.56</v>
-      </c>
-      <c r="E38" s="1">
-        <v>6.7261111175478198E+19</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1.2926229707714699E+24</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1.14632313743868E+24</v>
-      </c>
-      <c r="H38" s="1">
-        <v>1.12207037963754E+24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="1">
-        <v>2.7345938660383501E+25</v>
-      </c>
-      <c r="C39" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>520170168360342</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1.7754202990734299E+25</v>
-      </c>
-      <c r="F39" s="1">
-        <v>6.2651815011284499E+30</v>
-      </c>
-      <c r="G39" s="1">
-        <v>5.5560845485439497E+30</v>
-      </c>
-      <c r="H39" s="1">
-        <v>5.4385344717134304E+30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1.8234375328423001E+32</v>
-      </c>
-      <c r="C40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1">
-        <v>3.2785418494955602E+18</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1.18385697053823E+32</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1.80346064607371E+39</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1.5993439021283701E+39</v>
-      </c>
-      <c r="H40" s="1">
-        <v>1.5655065843318101E+39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="1">
-        <v>7.1275616984854199E+40</v>
-      </c>
-      <c r="C41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1.6811618028309301E+23</v>
-      </c>
-      <c r="E41" s="1">
-        <v>4.6275309396206498E+40</v>
-      </c>
-      <c r="F41" s="1">
-        <v>9.0689676237880803E+49</v>
-      </c>
-      <c r="G41" s="1">
-        <v>8.0425364974180896E+49</v>
-      </c>
-      <c r="H41" s="1">
-        <v>7.8723805584787699E+49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="1">
-        <v>4.6743913926334603E+51</v>
-      </c>
-      <c r="C42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1">
-        <v>1.17039583704618E+29</v>
-      </c>
-      <c r="E42" s="1">
-        <v>3.0348233671417001E+51</v>
-      </c>
-      <c r="F42" s="1">
-        <v>3.14235394816395E+63</v>
-      </c>
-      <c r="G42" s="1">
-        <v>2.7867004673855199E+63</v>
-      </c>
-      <c r="H42" s="1">
-        <v>2.7277422475847399E+63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="1">
-        <v>1.93797804225536E+65</v>
-      </c>
-      <c r="C43" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2.06258628707068E+36</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1.2582217776870001E+65</v>
-      </c>
-      <c r="F43" s="1">
-        <v>4.23070686542875E+80</v>
-      </c>
-      <c r="G43" s="1">
-        <v>3.75187295694365E+80</v>
-      </c>
-      <c r="H43" s="1">
-        <v>3.67249458346972E+80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="1">
-        <v>2.7252737077889099E+82</v>
-      </c>
-      <c r="C44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1">
-        <v>1.9990817607583501E+45</v>
-      </c>
-      <c r="E44" s="1">
-        <v>1.76936923666444E+82</v>
-      </c>
-      <c r="F44" s="1">
-        <v>2.0062470820513799E+102</v>
-      </c>
-      <c r="G44" s="1">
-        <v>1.77917884919046E+102</v>
-      </c>
-      <c r="H44" s="1">
-        <v>1.7415367635471801E+102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="1">
-        <v>1.04704982314521E+104</v>
-      </c>
-      <c r="C45" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1">
-        <v>2.7920978999315601E+56</v>
-      </c>
-      <c r="E45" s="1">
-        <v>6.79791442978089E+103</v>
-      </c>
-      <c r="F45" s="1">
-        <v>5.2269042929315103E+129</v>
-      </c>
-      <c r="G45" s="1">
-        <v>4.63532016964617E+129</v>
-      </c>
-      <c r="H45" s="1">
-        <v>4.5372507041232297E+129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="1">
-        <v>1.5658133644404201E+131</v>
-      </c>
-      <c r="C46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1.8571925551382701E+70</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1.0165958705288E+131</v>
-      </c>
-      <c r="F46" s="1">
-        <v>2.5609762312436698E+164</v>
-      </c>
-      <c r="G46" s="1">
-        <v>2.27112342476246E+164</v>
-      </c>
-      <c r="H46" s="1">
-        <v>2.2230732680847001E+164</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="1">
-        <v>2.5851156705513698E+165</v>
-      </c>
-      <c r="C47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1">
-        <v>2.5929951598646702E+87</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1.6783723879256799E+165</v>
-      </c>
-      <c r="F47" s="1">
-        <v>2.00265772733747E+208</v>
-      </c>
-      <c r="G47" s="1">
-        <v>1.77599573976871E+208</v>
-      </c>
-      <c r="H47" s="1">
-        <v>1.7384209991692001E+208</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="1">
-        <v>3.0947170472536998E+208</v>
-      </c>
-      <c r="C48" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1">
-        <v>4.7016356004727103E+108</v>
-      </c>
-      <c r="E48" s="1">
-        <v>2.00922832959567E+208</v>
-      </c>
-      <c r="F48" t="s">
-        <v>0</v>
-      </c>
-      <c r="G48" t="s">
-        <v>0</v>
-      </c>
-      <c r="H48" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1.09669063126096E+135</v>
-      </c>
-      <c r="E49" t="s">
-        <v>0</v>
-      </c>
-      <c r="F49" t="s">
-        <v>0</v>
-      </c>
-      <c r="G49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H49" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1">
-        <v>5.6382782939675705E+167</v>
-      </c>
-      <c r="E50" t="s">
-        <v>0</v>
-      </c>
-      <c r="F50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G50" t="s">
-        <v>0</v>
-      </c>
-      <c r="H50" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1">
-        <v>2.03233134014754E+208</v>
       </c>
       <c r="E51" t="s">
         <v>0</v>
@@ -11268,6 +11476,5132 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18F5FC5-472A-4D58-BD09-8DF096694514}">
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="e">
+        <f>yScaling2!A1/Viscosity!A1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B1" t="e">
+        <f>yScaling2!B1/Viscosity!B1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C1" t="e">
+        <f>yScaling2!C1/Viscosity!C1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D1" t="e">
+        <f>yScaling2!D1/Viscosity!D1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E1" t="e">
+        <f>yScaling2!E1/Viscosity!E1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F1">
+        <f>yScaling2!F1/Viscosity!F1</f>
+        <v>9.9123199999999988E-3</v>
+      </c>
+      <c r="G1">
+        <f>yScaling2!G1/Viscosity!G1</f>
+        <v>6.0499999999999859E-3</v>
+      </c>
+      <c r="H1">
+        <f>yScaling2!H1/Viscosity!H1</f>
+        <v>1.891308E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="e">
+        <f>yScaling2!A2/Viscosity!A2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B2" t="e">
+        <f>yScaling2!B2/Viscosity!B2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C2" t="e">
+        <f>yScaling2!C2/Viscosity!C2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D2" t="e">
+        <f>yScaling2!D2/Viscosity!D2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E2" t="e">
+        <f>yScaling2!E2/Viscosity!E2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F2">
+        <f>yScaling2!F2/Viscosity!F2</f>
+        <v>9.9123199999999988E-3</v>
+      </c>
+      <c r="G2">
+        <f>yScaling2!G2/Viscosity!G2</f>
+        <v>6.0499999999999851E-3</v>
+      </c>
+      <c r="H2">
+        <f>yScaling2!H2/Viscosity!H2</f>
+        <v>1.8913080000000002E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="e">
+        <f>yScaling2!A3/Viscosity!A3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B3" t="e">
+        <f>yScaling2!B3/Viscosity!B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C3" t="e">
+        <f>yScaling2!C3/Viscosity!C3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D3" t="e">
+        <f>yScaling2!D3/Viscosity!D3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E3" t="e">
+        <f>yScaling2!E3/Viscosity!E3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F3">
+        <f>yScaling2!F3/Viscosity!F3</f>
+        <v>9.9123199999999988E-3</v>
+      </c>
+      <c r="G3">
+        <f>yScaling2!G3/Viscosity!G3</f>
+        <v>6.0499999999999833E-3</v>
+      </c>
+      <c r="H3">
+        <f>yScaling2!H3/Viscosity!H3</f>
+        <v>1.891308E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="e">
+        <f>yScaling2!A4/Viscosity!A4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B4" t="e">
+        <f>yScaling2!B4/Viscosity!B4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C4" t="e">
+        <f>yScaling2!C4/Viscosity!C4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D4" t="e">
+        <f>yScaling2!D4/Viscosity!D4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E4" t="e">
+        <f>yScaling2!E4/Viscosity!E4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F4">
+        <f>yScaling2!F4/Viscosity!F4</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G4">
+        <f>yScaling2!G4/Viscosity!G4</f>
+        <v>6.0499999999999807E-3</v>
+      </c>
+      <c r="H4">
+        <f>yScaling2!H4/Viscosity!H4</f>
+        <v>1.891308E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="e">
+        <f>yScaling2!A5/Viscosity!A5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B5">
+        <f>yScaling2!B5/Viscosity!B5</f>
+        <v>5.0562000000000003E-2</v>
+      </c>
+      <c r="C5">
+        <f>yScaling2!C5/Viscosity!C5</f>
+        <v>3.4479379999999997E-2</v>
+      </c>
+      <c r="D5">
+        <f>yScaling2!D5/Viscosity!D5</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E5">
+        <f>yScaling2!E5/Viscosity!E5</f>
+        <v>1.1827219999999999E-2</v>
+      </c>
+      <c r="F5">
+        <f>yScaling2!F5/Viscosity!F5</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G5">
+        <f>yScaling2!G5/Viscosity!G5</f>
+        <v>6.0499999999999781E-3</v>
+      </c>
+      <c r="H5">
+        <f>yScaling2!H5/Viscosity!H5</f>
+        <v>1.8913080000000002E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="e">
+        <f>yScaling2!A6/Viscosity!A6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B6">
+        <f>yScaling2!B6/Viscosity!B6</f>
+        <v>5.0561999999999996E-2</v>
+      </c>
+      <c r="C6">
+        <f>yScaling2!C6/Viscosity!C6</f>
+        <v>3.4479379999999997E-2</v>
+      </c>
+      <c r="D6">
+        <f>yScaling2!D6/Viscosity!D6</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E6">
+        <f>yScaling2!E6/Viscosity!E6</f>
+        <v>1.1827220000000001E-2</v>
+      </c>
+      <c r="F6">
+        <f>yScaling2!F6/Viscosity!F6</f>
+        <v>9.9123199999999988E-3</v>
+      </c>
+      <c r="G6">
+        <f>yScaling2!G6/Viscosity!G6</f>
+        <v>6.0499999999999755E-3</v>
+      </c>
+      <c r="H6">
+        <f>yScaling2!H6/Viscosity!H6</f>
+        <v>1.891308E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="e">
+        <f>yScaling2!A7/Viscosity!A7</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B7">
+        <f>yScaling2!B7/Viscosity!B7</f>
+        <v>5.0562000000000003E-2</v>
+      </c>
+      <c r="C7">
+        <f>yScaling2!C7/Viscosity!C7</f>
+        <v>3.4479379999999997E-2</v>
+      </c>
+      <c r="D7">
+        <f>yScaling2!D7/Viscosity!D7</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E7">
+        <f>yScaling2!E7/Viscosity!E7</f>
+        <v>1.1827220000000001E-2</v>
+      </c>
+      <c r="F7">
+        <f>yScaling2!F7/Viscosity!F7</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G7">
+        <f>yScaling2!G7/Viscosity!G7</f>
+        <v>6.0499999999999998E-3</v>
+      </c>
+      <c r="H7">
+        <f>yScaling2!H7/Viscosity!H7</f>
+        <v>1.8913079999999945E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>yScaling2!A8/Viscosity!A8</f>
+        <v>3.9443628000000001E-2</v>
+      </c>
+      <c r="B8">
+        <f>yScaling2!B8/Viscosity!B8</f>
+        <v>5.0561999999999996E-2</v>
+      </c>
+      <c r="C8">
+        <f>yScaling2!C8/Viscosity!C8</f>
+        <v>3.4479379999999997E-2</v>
+      </c>
+      <c r="D8">
+        <f>yScaling2!D8/Viscosity!D8</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E8">
+        <f>yScaling2!E8/Viscosity!E8</f>
+        <v>1.1827219999999999E-2</v>
+      </c>
+      <c r="F8">
+        <f>yScaling2!F8/Viscosity!F8</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G8">
+        <f>yScaling2!G8/Viscosity!G8</f>
+        <v>6.0500000000000007E-3</v>
+      </c>
+      <c r="H8">
+        <f>yScaling2!H8/Viscosity!H8</f>
+        <v>1.8913079999999963E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>yScaling2!A9/Viscosity!A9</f>
+        <v>3.9443628000000001E-2</v>
+      </c>
+      <c r="B9">
+        <f>yScaling2!B9/Viscosity!B9</f>
+        <v>5.0562000000000003E-2</v>
+      </c>
+      <c r="C9">
+        <f>yScaling2!C9/Viscosity!C9</f>
+        <v>3.4479380000000004E-2</v>
+      </c>
+      <c r="D9">
+        <f>yScaling2!D9/Viscosity!D9</f>
+        <v>1.9090580000000003E-2</v>
+      </c>
+      <c r="E9">
+        <f>yScaling2!E9/Viscosity!E9</f>
+        <v>1.1827220000000001E-2</v>
+      </c>
+      <c r="F9">
+        <f>yScaling2!F9/Viscosity!F9</f>
+        <v>9.9123199999999988E-3</v>
+      </c>
+      <c r="G9">
+        <f>yScaling2!G9/Viscosity!G9</f>
+        <v>6.0499999999999998E-3</v>
+      </c>
+      <c r="H9">
+        <f>yScaling2!H9/Viscosity!H9</f>
+        <v>1.8913079999999943E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>yScaling2!A10/Viscosity!A10</f>
+        <v>3.9443627999999994E-2</v>
+      </c>
+      <c r="B10">
+        <f>yScaling2!B10/Viscosity!B10</f>
+        <v>5.0562000000000003E-2</v>
+      </c>
+      <c r="C10">
+        <f>yScaling2!C10/Viscosity!C10</f>
+        <v>3.4479379999999997E-2</v>
+      </c>
+      <c r="D10">
+        <f>yScaling2!D10/Viscosity!D10</f>
+        <v>1.9090579999999996E-2</v>
+      </c>
+      <c r="E10">
+        <f>yScaling2!E10/Viscosity!E10</f>
+        <v>1.1827219999999999E-2</v>
+      </c>
+      <c r="F10">
+        <f>yScaling2!F10/Viscosity!F10</f>
+        <v>9.9123199999999988E-3</v>
+      </c>
+      <c r="G10">
+        <f>yScaling2!G10/Viscosity!G10</f>
+        <v>6.0499999999999998E-3</v>
+      </c>
+      <c r="H10">
+        <f>yScaling2!H10/Viscosity!H10</f>
+        <v>1.8913079999999928E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>yScaling2!A11/Viscosity!A11</f>
+        <v>3.9443628000000001E-2</v>
+      </c>
+      <c r="B11">
+        <f>yScaling2!B11/Viscosity!B11</f>
+        <v>5.0561999999999996E-2</v>
+      </c>
+      <c r="C11">
+        <f>yScaling2!C11/Viscosity!C11</f>
+        <v>3.4479380000000004E-2</v>
+      </c>
+      <c r="D11">
+        <f>yScaling2!D11/Viscosity!D11</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E11">
+        <f>yScaling2!E11/Viscosity!E11</f>
+        <v>1.1827219999999998E-2</v>
+      </c>
+      <c r="F11">
+        <f>yScaling2!F11/Viscosity!F11</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G11">
+        <f>yScaling2!G11/Viscosity!G11</f>
+        <v>6.0500000000000007E-3</v>
+      </c>
+      <c r="H11">
+        <f>yScaling2!H11/Viscosity!H11</f>
+        <v>1.8913079999999924E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>yScaling2!A12/Viscosity!A12</f>
+        <v>3.9443628000000001E-2</v>
+      </c>
+      <c r="B12">
+        <f>yScaling2!B12/Viscosity!B12</f>
+        <v>5.0562000000000003E-2</v>
+      </c>
+      <c r="C12">
+        <f>yScaling2!C12/Viscosity!C12</f>
+        <v>3.4479380000000004E-2</v>
+      </c>
+      <c r="D12">
+        <f>yScaling2!D12/Viscosity!D12</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E12">
+        <f>yScaling2!E12/Viscosity!E12</f>
+        <v>1.1827220000000001E-2</v>
+      </c>
+      <c r="F12">
+        <f>yScaling2!F12/Viscosity!F12</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G12">
+        <f>yScaling2!G12/Viscosity!G12</f>
+        <v>6.0499999999999868E-3</v>
+      </c>
+      <c r="H12">
+        <f>yScaling2!H12/Viscosity!H12</f>
+        <v>1.8913079999999997E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>yScaling2!A13/Viscosity!A13</f>
+        <v>3.9443628000000001E-2</v>
+      </c>
+      <c r="B13">
+        <f>yScaling2!B13/Viscosity!B13</f>
+        <v>5.0562000000000003E-2</v>
+      </c>
+      <c r="C13">
+        <f>yScaling2!C13/Viscosity!C13</f>
+        <v>3.4479379999999997E-2</v>
+      </c>
+      <c r="D13">
+        <f>yScaling2!D13/Viscosity!D13</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E13">
+        <f>yScaling2!E13/Viscosity!E13</f>
+        <v>1.1827219999999999E-2</v>
+      </c>
+      <c r="F13">
+        <f>yScaling2!F13/Viscosity!F13</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G13">
+        <f>yScaling2!G13/Viscosity!G13</f>
+        <v>6.0499999999999842E-3</v>
+      </c>
+      <c r="H13">
+        <f>yScaling2!H13/Viscosity!H13</f>
+        <v>1.891308E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>yScaling2!A14/Viscosity!A14</f>
+        <v>3.9443628000000001E-2</v>
+      </c>
+      <c r="B14">
+        <f>yScaling2!B14/Viscosity!B14</f>
+        <v>5.0561999999999996E-2</v>
+      </c>
+      <c r="C14">
+        <f>yScaling2!C14/Viscosity!C14</f>
+        <v>3.4479379999999997E-2</v>
+      </c>
+      <c r="D14">
+        <f>yScaling2!D14/Viscosity!D14</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E14">
+        <f>yScaling2!E14/Viscosity!E14</f>
+        <v>1.1827219999999999E-2</v>
+      </c>
+      <c r="F14">
+        <f>yScaling2!F14/Viscosity!F14</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G14">
+        <f>yScaling2!G14/Viscosity!G14</f>
+        <v>6.0499999999999911E-3</v>
+      </c>
+      <c r="H14">
+        <f>yScaling2!H14/Viscosity!H14</f>
+        <v>1.8913080000000002E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>yScaling2!A15/Viscosity!A15</f>
+        <v>3.9443627999999994E-2</v>
+      </c>
+      <c r="B15">
+        <f>yScaling2!B15/Viscosity!B15</f>
+        <v>5.0562000000000003E-2</v>
+      </c>
+      <c r="C15">
+        <f>yScaling2!C15/Viscosity!C15</f>
+        <v>3.4479379999999997E-2</v>
+      </c>
+      <c r="D15">
+        <f>yScaling2!D15/Viscosity!D15</f>
+        <v>1.9090580000000003E-2</v>
+      </c>
+      <c r="E15">
+        <f>yScaling2!E15/Viscosity!E15</f>
+        <v>1.1827220000000001E-2</v>
+      </c>
+      <c r="F15">
+        <f>yScaling2!F15/Viscosity!F15</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G15">
+        <f>yScaling2!G15/Viscosity!G15</f>
+        <v>6.0499999999999877E-3</v>
+      </c>
+      <c r="H15">
+        <f>yScaling2!H15/Viscosity!H15</f>
+        <v>1.8913079999999997E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>yScaling2!A16/Viscosity!A16</f>
+        <v>3.9443627999999994E-2</v>
+      </c>
+      <c r="B16">
+        <f>yScaling2!B16/Viscosity!B16</f>
+        <v>5.0562000000000003E-2</v>
+      </c>
+      <c r="C16">
+        <f>yScaling2!C16/Viscosity!C16</f>
+        <v>3.4479380000000004E-2</v>
+      </c>
+      <c r="D16">
+        <f>yScaling2!D16/Viscosity!D16</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E16">
+        <f>yScaling2!E16/Viscosity!E16</f>
+        <v>1.1827219999999999E-2</v>
+      </c>
+      <c r="F16">
+        <f>yScaling2!F16/Viscosity!F16</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G16">
+        <f>yScaling2!G16/Viscosity!G16</f>
+        <v>6.0499999999999859E-3</v>
+      </c>
+      <c r="H16">
+        <f>yScaling2!H16/Viscosity!H16</f>
+        <v>1.891308E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>yScaling2!A17/Viscosity!A17</f>
+        <v>3.9443628000000001E-2</v>
+      </c>
+      <c r="B17">
+        <f>yScaling2!B17/Viscosity!B17</f>
+        <v>5.0562000000000003E-2</v>
+      </c>
+      <c r="C17">
+        <f>yScaling2!C17/Viscosity!C17</f>
+        <v>3.4479380000000004E-2</v>
+      </c>
+      <c r="D17">
+        <f>yScaling2!D17/Viscosity!D17</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E17">
+        <f>yScaling2!E17/Viscosity!E17</f>
+        <v>1.1827219999999987E-2</v>
+      </c>
+      <c r="F17">
+        <f>yScaling2!F17/Viscosity!F17</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G17">
+        <f>yScaling2!G17/Viscosity!G17</f>
+        <v>6.0499999999999825E-3</v>
+      </c>
+      <c r="H17">
+        <f>yScaling2!H17/Viscosity!H17</f>
+        <v>1.891307999999995E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>yScaling2!A18/Viscosity!A18</f>
+        <v>3.9443628000000008E-2</v>
+      </c>
+      <c r="B18">
+        <f>yScaling2!B18/Viscosity!B18</f>
+        <v>5.0562000000000003E-2</v>
+      </c>
+      <c r="C18">
+        <f>yScaling2!C18/Viscosity!C18</f>
+        <v>3.4479379999999997E-2</v>
+      </c>
+      <c r="D18">
+        <f>yScaling2!D18/Viscosity!D18</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E18">
+        <f>yScaling2!E18/Viscosity!E18</f>
+        <v>1.1827219999999999E-2</v>
+      </c>
+      <c r="F18">
+        <f>yScaling2!F18/Viscosity!F18</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G18">
+        <f>yScaling2!G18/Viscosity!G18</f>
+        <v>6.0499999999999781E-3</v>
+      </c>
+      <c r="H18">
+        <f>yScaling2!H18/Viscosity!H18</f>
+        <v>1.8913079999999965E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>yScaling2!A19/Viscosity!A19</f>
+        <v>3.9443628000000001E-2</v>
+      </c>
+      <c r="B19">
+        <f>yScaling2!B19/Viscosity!B19</f>
+        <v>5.0562000000000003E-2</v>
+      </c>
+      <c r="C19">
+        <f>yScaling2!C19/Viscosity!C19</f>
+        <v>3.4479380000000004E-2</v>
+      </c>
+      <c r="D19">
+        <f>yScaling2!D19/Viscosity!D19</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E19">
+        <f>yScaling2!E19/Viscosity!E19</f>
+        <v>1.1827220000000001E-2</v>
+      </c>
+      <c r="F19">
+        <f>yScaling2!F19/Viscosity!F19</f>
+        <v>9.9123200000000109E-3</v>
+      </c>
+      <c r="G19">
+        <f>yScaling2!G19/Viscosity!G19</f>
+        <v>6.0500000000000007E-3</v>
+      </c>
+      <c r="H19">
+        <f>yScaling2!H19/Viscosity!H19</f>
+        <v>1.8913079999999954E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>yScaling2!A20/Viscosity!A20</f>
+        <v>3.9443627999999994E-2</v>
+      </c>
+      <c r="B20">
+        <f>yScaling2!B20/Viscosity!B20</f>
+        <v>5.0562000000000003E-2</v>
+      </c>
+      <c r="C20">
+        <f>yScaling2!C20/Viscosity!C20</f>
+        <v>3.4479379999999997E-2</v>
+      </c>
+      <c r="D20">
+        <f>yScaling2!D20/Viscosity!D20</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E20">
+        <f>yScaling2!E20/Viscosity!E20</f>
+        <v>1.1827219999999999E-2</v>
+      </c>
+      <c r="F20">
+        <f>yScaling2!F20/Viscosity!F20</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G20">
+        <f>yScaling2!G20/Viscosity!G20</f>
+        <v>6.0500000000000007E-3</v>
+      </c>
+      <c r="H20">
+        <f>yScaling2!H20/Viscosity!H20</f>
+        <v>1.891307999999995E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>yScaling2!A21/Viscosity!A21</f>
+        <v>3.9443627999999994E-2</v>
+      </c>
+      <c r="B21">
+        <f>yScaling2!B21/Viscosity!B21</f>
+        <v>5.0561999999999996E-2</v>
+      </c>
+      <c r="C21">
+        <f>yScaling2!C21/Viscosity!C21</f>
+        <v>3.4479380000000004E-2</v>
+      </c>
+      <c r="D21">
+        <f>yScaling2!D21/Viscosity!D21</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E21">
+        <f>yScaling2!E21/Viscosity!E21</f>
+        <v>1.1827220000000001E-2</v>
+      </c>
+      <c r="F21">
+        <f>yScaling2!F21/Viscosity!F21</f>
+        <v>9.9123199999999988E-3</v>
+      </c>
+      <c r="G21">
+        <f>yScaling2!G21/Viscosity!G21</f>
+        <v>6.0499999999999998E-3</v>
+      </c>
+      <c r="H21">
+        <f>yScaling2!H21/Viscosity!H21</f>
+        <v>1.8913079999999943E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>yScaling2!A22/Viscosity!A22</f>
+        <v>3.9443627999999994E-2</v>
+      </c>
+      <c r="B22">
+        <f>yScaling2!B22/Viscosity!B22</f>
+        <v>5.0561999999999996E-2</v>
+      </c>
+      <c r="C22">
+        <f>yScaling2!C22/Viscosity!C22</f>
+        <v>3.4479379999999997E-2</v>
+      </c>
+      <c r="D22">
+        <f>yScaling2!D22/Viscosity!D22</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E22">
+        <f>yScaling2!E22/Viscosity!E22</f>
+        <v>1.1827220000000001E-2</v>
+      </c>
+      <c r="F22">
+        <f>yScaling2!F22/Viscosity!F22</f>
+        <v>9.9123199999999988E-3</v>
+      </c>
+      <c r="G22">
+        <f>yScaling2!G22/Viscosity!G22</f>
+        <v>6.049999999999999E-3</v>
+      </c>
+      <c r="H22">
+        <f>yScaling2!H22/Viscosity!H22</f>
+        <v>1.8913079999999928E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>yScaling2!A23/Viscosity!A23</f>
+        <v>3.9443628000000001E-2</v>
+      </c>
+      <c r="B23">
+        <f>yScaling2!B23/Viscosity!B23</f>
+        <v>5.056200000000001E-2</v>
+      </c>
+      <c r="C23">
+        <f>yScaling2!C23/Viscosity!C23</f>
+        <v>3.4479380000000004E-2</v>
+      </c>
+      <c r="D23">
+        <f>yScaling2!D23/Viscosity!D23</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E23">
+        <f>yScaling2!E23/Viscosity!E23</f>
+        <v>1.1827219999999999E-2</v>
+      </c>
+      <c r="F23">
+        <f>yScaling2!F23/Viscosity!F23</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G23">
+        <f>yScaling2!G23/Viscosity!G23</f>
+        <v>6.0499999999999868E-3</v>
+      </c>
+      <c r="H23">
+        <f>yScaling2!H23/Viscosity!H23</f>
+        <v>1.8913079999999922E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>yScaling2!A24/Viscosity!A24</f>
+        <v>3.9443628000000001E-2</v>
+      </c>
+      <c r="B24">
+        <f>yScaling2!B24/Viscosity!B24</f>
+        <v>5.0562000000000003E-2</v>
+      </c>
+      <c r="C24">
+        <f>yScaling2!C24/Viscosity!C24</f>
+        <v>3.4479380000000004E-2</v>
+      </c>
+      <c r="D24">
+        <f>yScaling2!D24/Viscosity!D24</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E24">
+        <f>yScaling2!E24/Viscosity!E24</f>
+        <v>1.1827220000000001E-2</v>
+      </c>
+      <c r="F24">
+        <f>yScaling2!F24/Viscosity!F24</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G24">
+        <f>yScaling2!G24/Viscosity!G24</f>
+        <v>6.0499999999999825E-3</v>
+      </c>
+      <c r="H24">
+        <f>yScaling2!H24/Viscosity!H24</f>
+        <v>1.891308E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>yScaling2!A25/Viscosity!A25</f>
+        <v>3.9443628000000001E-2</v>
+      </c>
+      <c r="B25">
+        <f>yScaling2!B25/Viscosity!B25</f>
+        <v>5.0561999999999996E-2</v>
+      </c>
+      <c r="C25">
+        <f>yScaling2!C25/Viscosity!C25</f>
+        <v>3.4479379999999997E-2</v>
+      </c>
+      <c r="D25">
+        <f>yScaling2!D25/Viscosity!D25</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E25">
+        <f>yScaling2!E25/Viscosity!E25</f>
+        <v>1.1827219999999999E-2</v>
+      </c>
+      <c r="F25">
+        <f>yScaling2!F25/Viscosity!F25</f>
+        <v>9.9123199999999988E-3</v>
+      </c>
+      <c r="G25">
+        <f>yScaling2!G25/Viscosity!G25</f>
+        <v>6.0499999999999894E-3</v>
+      </c>
+      <c r="H25">
+        <f>yScaling2!H25/Viscosity!H25</f>
+        <v>1.8913080000000002E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>yScaling2!A26/Viscosity!A26</f>
+        <v>3.9443628000000001E-2</v>
+      </c>
+      <c r="B26">
+        <f>yScaling2!B26/Viscosity!B26</f>
+        <v>5.0562000000000003E-2</v>
+      </c>
+      <c r="C26">
+        <f>yScaling2!C26/Viscosity!C26</f>
+        <v>3.4479379999999997E-2</v>
+      </c>
+      <c r="D26">
+        <f>yScaling2!D26/Viscosity!D26</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E26">
+        <f>yScaling2!E26/Viscosity!E26</f>
+        <v>1.1827219999999999E-2</v>
+      </c>
+      <c r="F26">
+        <f>yScaling2!F26/Viscosity!F26</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G26">
+        <f>yScaling2!G26/Viscosity!G26</f>
+        <v>6.0499999999999868E-3</v>
+      </c>
+      <c r="H26">
+        <f>yScaling2!H26/Viscosity!H26</f>
+        <v>1.8913079999999958E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>yScaling2!A27/Viscosity!A27</f>
+        <v>3.9443628000000001E-2</v>
+      </c>
+      <c r="B27">
+        <f>yScaling2!B27/Viscosity!B27</f>
+        <v>5.0562000000000003E-2</v>
+      </c>
+      <c r="C27">
+        <f>yScaling2!C27/Viscosity!C27</f>
+        <v>3.4479379999999997E-2</v>
+      </c>
+      <c r="D27">
+        <f>yScaling2!D27/Viscosity!D27</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E27">
+        <f>yScaling2!E27/Viscosity!E27</f>
+        <v>1.1827219999999999E-2</v>
+      </c>
+      <c r="F27">
+        <f>yScaling2!F27/Viscosity!F27</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G27">
+        <f>yScaling2!G27/Viscosity!G27</f>
+        <v>6.0499999999999833E-3</v>
+      </c>
+      <c r="H27">
+        <f>yScaling2!H27/Viscosity!H27</f>
+        <v>1.8913079999999948E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>yScaling2!A28/Viscosity!A28</f>
+        <v>3.9443627999999994E-2</v>
+      </c>
+      <c r="B28">
+        <f>yScaling2!B28/Viscosity!B28</f>
+        <v>5.0561999999999989E-2</v>
+      </c>
+      <c r="C28">
+        <f>yScaling2!C28/Viscosity!C28</f>
+        <v>3.4479379999999997E-2</v>
+      </c>
+      <c r="D28">
+        <f>yScaling2!D28/Viscosity!D28</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E28">
+        <f>yScaling2!E28/Viscosity!E28</f>
+        <v>1.1827220000000001E-2</v>
+      </c>
+      <c r="F28">
+        <f>yScaling2!F28/Viscosity!F28</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G28">
+        <f>yScaling2!G28/Viscosity!G28</f>
+        <v>6.049999999999979E-3</v>
+      </c>
+      <c r="H28">
+        <f>yScaling2!H28/Viscosity!H28</f>
+        <v>1.8913079999999969E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>yScaling2!A29/Viscosity!A29</f>
+        <v>3.9443627999999994E-2</v>
+      </c>
+      <c r="B29">
+        <f>yScaling2!B29/Viscosity!B29</f>
+        <v>5.0561999999999996E-2</v>
+      </c>
+      <c r="C29">
+        <f>yScaling2!C29/Viscosity!C29</f>
+        <v>3.4479380000000004E-2</v>
+      </c>
+      <c r="D29">
+        <f>yScaling2!D29/Viscosity!D29</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E29">
+        <f>yScaling2!E29/Viscosity!E29</f>
+        <v>1.1827219999999999E-2</v>
+      </c>
+      <c r="F29">
+        <f>yScaling2!F29/Viscosity!F29</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G29">
+        <f>yScaling2!G29/Viscosity!G29</f>
+        <v>6.0499999999999755E-3</v>
+      </c>
+      <c r="H29">
+        <f>yScaling2!H29/Viscosity!H29</f>
+        <v>1.8913079999999958E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>yScaling2!A30/Viscosity!A30</f>
+        <v>3.9443628000000001E-2</v>
+      </c>
+      <c r="B30">
+        <f>yScaling2!B30/Viscosity!B30</f>
+        <v>5.0561999999999996E-2</v>
+      </c>
+      <c r="C30">
+        <f>yScaling2!C30/Viscosity!C30</f>
+        <v>3.4479379999999997E-2</v>
+      </c>
+      <c r="D30">
+        <f>yScaling2!D30/Viscosity!D30</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E30">
+        <f>yScaling2!E30/Viscosity!E30</f>
+        <v>1.1827220000000001E-2</v>
+      </c>
+      <c r="F30">
+        <f>yScaling2!F30/Viscosity!F30</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G30">
+        <f>yScaling2!G30/Viscosity!G30</f>
+        <v>6.0499999999999755E-3</v>
+      </c>
+      <c r="H30">
+        <f>yScaling2!H30/Viscosity!H30</f>
+        <v>1.8913079999999952E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>yScaling2!A31/Viscosity!A31</f>
+        <v>3.9443627999999994E-2</v>
+      </c>
+      <c r="B31">
+        <f>yScaling2!B31/Viscosity!B31</f>
+        <v>5.0561999999999996E-2</v>
+      </c>
+      <c r="C31">
+        <f>yScaling2!C31/Viscosity!C31</f>
+        <v>3.4479379999999997E-2</v>
+      </c>
+      <c r="D31">
+        <f>yScaling2!D31/Viscosity!D31</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E31">
+        <f>yScaling2!E31/Viscosity!E31</f>
+        <v>1.1827219999999999E-2</v>
+      </c>
+      <c r="F31">
+        <f>yScaling2!F31/Viscosity!F31</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G31">
+        <f>yScaling2!G31/Viscosity!G31</f>
+        <v>6.0499999999999755E-3</v>
+      </c>
+      <c r="H31">
+        <f>yScaling2!H31/Viscosity!H31</f>
+        <v>1.8913079999999932E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>yScaling2!A32/Viscosity!A32</f>
+        <v>3.9443628000000001E-2</v>
+      </c>
+      <c r="B32">
+        <f>yScaling2!B32/Viscosity!B32</f>
+        <v>5.0561999999999996E-2</v>
+      </c>
+      <c r="C32">
+        <f>yScaling2!C32/Viscosity!C32</f>
+        <v>3.4479379999999997E-2</v>
+      </c>
+      <c r="D32">
+        <f>yScaling2!D32/Viscosity!D32</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E32">
+        <f>yScaling2!E32/Viscosity!E32</f>
+        <v>1.1827219999999999E-2</v>
+      </c>
+      <c r="F32">
+        <f>yScaling2!F32/Viscosity!F32</f>
+        <v>9.9123199999999988E-3</v>
+      </c>
+      <c r="G32">
+        <f>yScaling2!G32/Viscosity!G32</f>
+        <v>6.0499999999999747E-3</v>
+      </c>
+      <c r="H32">
+        <f>yScaling2!H32/Viscosity!H32</f>
+        <v>1.8913079999999926E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>yScaling2!A33/Viscosity!A33</f>
+        <v>3.9443627999999994E-2</v>
+      </c>
+      <c r="B33">
+        <f>yScaling2!B33/Viscosity!B33</f>
+        <v>5.0561999999999996E-2</v>
+      </c>
+      <c r="C33">
+        <f>yScaling2!C33/Viscosity!C33</f>
+        <v>3.4479379999999997E-2</v>
+      </c>
+      <c r="D33">
+        <f>yScaling2!D33/Viscosity!D33</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E33">
+        <f>yScaling2!E33/Viscosity!E33</f>
+        <v>1.1827219999999999E-2</v>
+      </c>
+      <c r="F33">
+        <f>yScaling2!F33/Viscosity!F33</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G33">
+        <f>yScaling2!G33/Viscosity!G33</f>
+        <v>6.0499999999999747E-3</v>
+      </c>
+      <c r="H33">
+        <f>yScaling2!H33/Viscosity!H33</f>
+        <v>1.8913079999999922E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>yScaling2!A34/Viscosity!A34</f>
+        <v>3.9443628000000001E-2</v>
+      </c>
+      <c r="B34">
+        <f>yScaling2!B34/Viscosity!B34</f>
+        <v>5.0562000000000003E-2</v>
+      </c>
+      <c r="C34">
+        <f>yScaling2!C34/Viscosity!C34</f>
+        <v>3.4479380000000004E-2</v>
+      </c>
+      <c r="D34">
+        <f>yScaling2!D34/Viscosity!D34</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E34">
+        <f>yScaling2!E34/Viscosity!E34</f>
+        <v>1.1827220000000001E-2</v>
+      </c>
+      <c r="F34">
+        <f>yScaling2!F34/Viscosity!F34</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G34">
+        <f>yScaling2!G34/Viscosity!G34</f>
+        <v>6.049999999999979E-3</v>
+      </c>
+      <c r="H34">
+        <f>yScaling2!H34/Viscosity!H34</f>
+        <v>1.8913079999999932E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>yScaling2!A35/Viscosity!A35</f>
+        <v>3.9443628000000001E-2</v>
+      </c>
+      <c r="B35">
+        <f>yScaling2!B35/Viscosity!B35</f>
+        <v>5.056200000000001E-2</v>
+      </c>
+      <c r="C35">
+        <f>yScaling2!C35/Viscosity!C35</f>
+        <v>3.4479379999999997E-2</v>
+      </c>
+      <c r="D35">
+        <f>yScaling2!D35/Viscosity!D35</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E35">
+        <f>yScaling2!E35/Viscosity!E35</f>
+        <v>1.1827220000000001E-2</v>
+      </c>
+      <c r="F35">
+        <f>yScaling2!F35/Viscosity!F35</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G35">
+        <f>yScaling2!G35/Viscosity!G35</f>
+        <v>6.0499999999999755E-3</v>
+      </c>
+      <c r="H35">
+        <f>yScaling2!H35/Viscosity!H35</f>
+        <v>1.8913079999999943E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>yScaling2!A36/Viscosity!A36</f>
+        <v>3.9443628000000001E-2</v>
+      </c>
+      <c r="B36">
+        <f>yScaling2!B36/Viscosity!B36</f>
+        <v>5.0562000000000003E-2</v>
+      </c>
+      <c r="C36">
+        <f>yScaling2!C36/Viscosity!C36</f>
+        <v>3.4479379999999997E-2</v>
+      </c>
+      <c r="D36">
+        <f>yScaling2!D36/Viscosity!D36</f>
+        <v>1.9090580000000003E-2</v>
+      </c>
+      <c r="E36">
+        <f>yScaling2!E36/Viscosity!E36</f>
+        <v>1.1827220000000001E-2</v>
+      </c>
+      <c r="F36">
+        <f>yScaling2!F36/Viscosity!F36</f>
+        <v>9.9123200000000022E-3</v>
+      </c>
+      <c r="G36">
+        <f>yScaling2!G36/Viscosity!G36</f>
+        <v>6.0499999999999773E-3</v>
+      </c>
+      <c r="H36">
+        <f>yScaling2!H36/Viscosity!H36</f>
+        <v>1.8913079999999945E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>yScaling2!A37/Viscosity!A37</f>
+        <v>3.9443627999999994E-2</v>
+      </c>
+      <c r="B37">
+        <f>yScaling2!B37/Viscosity!B37</f>
+        <v>5.0561999999999996E-2</v>
+      </c>
+      <c r="C37">
+        <f>yScaling2!C37/Viscosity!C37</f>
+        <v>3.4479379999999997E-2</v>
+      </c>
+      <c r="D37">
+        <f>yScaling2!D37/Viscosity!D37</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E37">
+        <f>yScaling2!E37/Viscosity!E37</f>
+        <v>1.1827220000000001E-2</v>
+      </c>
+      <c r="F37">
+        <f>yScaling2!F37/Viscosity!F37</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G37">
+        <f>yScaling2!G37/Viscosity!G37</f>
+        <v>6.049999999999979E-3</v>
+      </c>
+      <c r="H37">
+        <f>yScaling2!H37/Viscosity!H37</f>
+        <v>1.8913079999999954E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>yScaling2!A38/Viscosity!A38</f>
+        <v>3.9443628000000001E-2</v>
+      </c>
+      <c r="B38">
+        <f>yScaling2!B38/Viscosity!B38</f>
+        <v>5.0561999999999996E-2</v>
+      </c>
+      <c r="C38">
+        <f>yScaling2!C38/Viscosity!C38</f>
+        <v>3.4479380000000004E-2</v>
+      </c>
+      <c r="D38">
+        <f>yScaling2!D38/Viscosity!D38</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E38">
+        <f>yScaling2!E38/Viscosity!E38</f>
+        <v>1.1827219999999999E-2</v>
+      </c>
+      <c r="F38">
+        <f>yScaling2!F38/Viscosity!F38</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G38">
+        <f>yScaling2!G38/Viscosity!G38</f>
+        <v>6.0499999999999773E-3</v>
+      </c>
+      <c r="H38" t="e">
+        <f>yScaling2!H38/Viscosity!H38</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="e">
+        <f>yScaling2!A39/Viscosity!A39</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B39">
+        <f>yScaling2!B39/Viscosity!B39</f>
+        <v>5.0561999999999989E-2</v>
+      </c>
+      <c r="C39" t="e">
+        <f>yScaling2!C39/Viscosity!C39</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D39">
+        <f>yScaling2!D39/Viscosity!D39</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E39">
+        <f>yScaling2!E39/Viscosity!E39</f>
+        <v>1.1827219999999999E-2</v>
+      </c>
+      <c r="F39">
+        <f>yScaling2!F39/Viscosity!F39</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G39">
+        <f>yScaling2!G39/Viscosity!G39</f>
+        <v>6.049999999999979E-3</v>
+      </c>
+      <c r="H39" t="e">
+        <f>yScaling2!H39/Viscosity!H39</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="e">
+        <f>yScaling2!A40/Viscosity!A40</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B40">
+        <f>yScaling2!B40/Viscosity!B40</f>
+        <v>5.0561999999999996E-2</v>
+      </c>
+      <c r="C40" t="e">
+        <f>yScaling2!C40/Viscosity!C40</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D40">
+        <f>yScaling2!D40/Viscosity!D40</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E40">
+        <f>yScaling2!E40/Viscosity!E40</f>
+        <v>1.1827220000000001E-2</v>
+      </c>
+      <c r="F40">
+        <f>yScaling2!F40/Viscosity!F40</f>
+        <v>9.9123199999999988E-3</v>
+      </c>
+      <c r="G40">
+        <f>yScaling2!G40/Viscosity!G40</f>
+        <v>6.049999999999979E-3</v>
+      </c>
+      <c r="H40" t="e">
+        <f>yScaling2!H40/Viscosity!H40</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="e">
+        <f>yScaling2!A41/Viscosity!A41</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B41">
+        <f>yScaling2!B41/Viscosity!B41</f>
+        <v>5.0561999999999996E-2</v>
+      </c>
+      <c r="C41" t="e">
+        <f>yScaling2!C41/Viscosity!C41</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D41">
+        <f>yScaling2!D41/Viscosity!D41</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E41">
+        <f>yScaling2!E41/Viscosity!E41</f>
+        <v>1.1827219999999999E-2</v>
+      </c>
+      <c r="F41">
+        <f>yScaling2!F41/Viscosity!F41</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G41">
+        <f>yScaling2!G41/Viscosity!G41</f>
+        <v>6.0499999999999903E-3</v>
+      </c>
+      <c r="H41" t="e">
+        <f>yScaling2!H41/Viscosity!H41</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="e">
+        <f>yScaling2!A42/Viscosity!A42</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B42">
+        <f>yScaling2!B42/Viscosity!B42</f>
+        <v>5.056200000000001E-2</v>
+      </c>
+      <c r="C42" t="e">
+        <f>yScaling2!C42/Viscosity!C42</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D42">
+        <f>yScaling2!D42/Viscosity!D42</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E42">
+        <f>yScaling2!E42/Viscosity!E42</f>
+        <v>1.1827219999999999E-2</v>
+      </c>
+      <c r="F42">
+        <f>yScaling2!F42/Viscosity!F42</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G42">
+        <f>yScaling2!G42/Viscosity!G42</f>
+        <v>6.0499999999999851E-3</v>
+      </c>
+      <c r="H42" t="e">
+        <f>yScaling2!H42/Viscosity!H42</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="e">
+        <f>yScaling2!A43/Viscosity!A43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B43">
+        <f>yScaling2!B43/Viscosity!B43</f>
+        <v>5.056200000000001E-2</v>
+      </c>
+      <c r="C43" t="e">
+        <f>yScaling2!C43/Viscosity!C43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D43">
+        <f>yScaling2!D43/Viscosity!D43</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E43">
+        <f>yScaling2!E43/Viscosity!E43</f>
+        <v>1.1827220000000001E-2</v>
+      </c>
+      <c r="F43">
+        <f>yScaling2!F43/Viscosity!F43</f>
+        <v>9.9123199999999988E-3</v>
+      </c>
+      <c r="G43">
+        <f>yScaling2!G43/Viscosity!G43</f>
+        <v>6.0499999999999833E-3</v>
+      </c>
+      <c r="H43" t="e">
+        <f>yScaling2!H43/Viscosity!H43</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="e">
+        <f>yScaling2!A44/Viscosity!A44</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B44">
+        <f>yScaling2!B44/Viscosity!B44</f>
+        <v>5.0562000000000003E-2</v>
+      </c>
+      <c r="C44" t="e">
+        <f>yScaling2!C44/Viscosity!C44</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D44">
+        <f>yScaling2!D44/Viscosity!D44</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E44">
+        <f>yScaling2!E44/Viscosity!E44</f>
+        <v>1.1827219999999999E-2</v>
+      </c>
+      <c r="F44">
+        <f>yScaling2!F44/Viscosity!F44</f>
+        <v>9.9123199999999988E-3</v>
+      </c>
+      <c r="G44">
+        <f>yScaling2!G44/Viscosity!G44</f>
+        <v>6.0499999999999868E-3</v>
+      </c>
+      <c r="H44" t="e">
+        <f>yScaling2!H44/Viscosity!H44</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="e">
+        <f>yScaling2!A45/Viscosity!A45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B45">
+        <f>yScaling2!B45/Viscosity!B45</f>
+        <v>5.0561999999999996E-2</v>
+      </c>
+      <c r="C45" t="e">
+        <f>yScaling2!C45/Viscosity!C45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D45">
+        <f>yScaling2!D45/Viscosity!D45</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E45">
+        <f>yScaling2!E45/Viscosity!E45</f>
+        <v>1.1827220000000001E-2</v>
+      </c>
+      <c r="F45">
+        <f>yScaling2!F45/Viscosity!F45</f>
+        <v>9.9123200000000005E-3</v>
+      </c>
+      <c r="G45">
+        <f>yScaling2!G45/Viscosity!G45</f>
+        <v>6.0499999999999842E-3</v>
+      </c>
+      <c r="H45" t="e">
+        <f>yScaling2!H45/Viscosity!H45</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="e">
+        <f>yScaling2!A46/Viscosity!A46</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B46">
+        <f>yScaling2!B46/Viscosity!B46</f>
+        <v>5.0561999999999996E-2</v>
+      </c>
+      <c r="C46" t="e">
+        <f>yScaling2!C46/Viscosity!C46</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D46">
+        <f>yScaling2!D46/Viscosity!D46</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E46">
+        <f>yScaling2!E46/Viscosity!E46</f>
+        <v>1.1827219999999999E-2</v>
+      </c>
+      <c r="F46">
+        <f>yScaling2!F46/Viscosity!F46</f>
+        <v>9.9123200000000092E-3</v>
+      </c>
+      <c r="G46">
+        <f>yScaling2!G46/Viscosity!G46</f>
+        <v>6.0499999999999851E-3</v>
+      </c>
+      <c r="H46" t="e">
+        <f>yScaling2!H46/Viscosity!H46</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="e">
+        <f>yScaling2!A47/Viscosity!A47</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B47">
+        <f>yScaling2!B47/Viscosity!B47</f>
+        <v>5.0562000000000003E-2</v>
+      </c>
+      <c r="C47" t="e">
+        <f>yScaling2!C47/Viscosity!C47</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D47">
+        <f>yScaling2!D47/Viscosity!D47</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E47">
+        <f>yScaling2!E47/Viscosity!E47</f>
+        <v>1.1827220000000001E-2</v>
+      </c>
+      <c r="F47">
+        <f>yScaling2!F47/Viscosity!F47</f>
+        <v>9.9123200000000126E-3</v>
+      </c>
+      <c r="G47">
+        <f>yScaling2!G47/Viscosity!G47</f>
+        <v>6.0499999999999998E-3</v>
+      </c>
+      <c r="H47" t="e">
+        <f>yScaling2!H47/Viscosity!H47</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="e">
+        <f>yScaling2!A48/Viscosity!A48</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B48">
+        <f>yScaling2!B48/Viscosity!B48</f>
+        <v>5.0562000000000003E-2</v>
+      </c>
+      <c r="C48" t="e">
+        <f>yScaling2!C48/Viscosity!C48</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D48">
+        <f>yScaling2!D48/Viscosity!D48</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E48">
+        <f>yScaling2!E48/Viscosity!E48</f>
+        <v>1.1827219999999999E-2</v>
+      </c>
+      <c r="F48" t="e">
+        <f>yScaling2!F48/Viscosity!F48</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G48" t="e">
+        <f>yScaling2!G48/Viscosity!G48</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H48" t="e">
+        <f>yScaling2!H48/Viscosity!H48</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="e">
+        <f>yScaling2!A49/Viscosity!A49</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B49" t="e">
+        <f>yScaling2!B49/Viscosity!B49</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C49" t="e">
+        <f>yScaling2!C49/Viscosity!C49</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D49">
+        <f>yScaling2!D49/Viscosity!D49</f>
+        <v>1.9090579999999999E-2</v>
+      </c>
+      <c r="E49" t="e">
+        <f>yScaling2!E49/Viscosity!E49</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F49" t="e">
+        <f>yScaling2!F49/Viscosity!F49</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G49" t="e">
+        <f>yScaling2!G49/Viscosity!G49</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H49" t="e">
+        <f>yScaling2!H49/Viscosity!H49</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="e">
+        <f>yScaling2!A50/Viscosity!A50</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B50" t="e">
+        <f>yScaling2!B50/Viscosity!B50</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C50" t="e">
+        <f>yScaling2!C50/Viscosity!C50</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D50">
+        <f>yScaling2!D50/Viscosity!D50</f>
+        <v>1.9090580000000003E-2</v>
+      </c>
+      <c r="E50" t="e">
+        <f>yScaling2!E50/Viscosity!E50</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" t="e">
+        <f>yScaling2!F50/Viscosity!F50</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G50" t="e">
+        <f>yScaling2!G50/Viscosity!G50</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H50" t="e">
+        <f>yScaling2!H50/Viscosity!H50</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF90578-C82A-4E75-A9AE-195FA4398DA4}">
+  <dimension ref="A1:A51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="e">
+        <f>yScaling2!A1/(Viscosity!A1-Beta_Eta!A$1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="e">
+        <f>yScaling2!A2/(Viscosity!A2-Beta_Eta!A$1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="e">
+        <f>yScaling2!A3/(Viscosity!A3-Beta_Eta!A$1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="e">
+        <f>yScaling2!A4/(Viscosity!A4-Beta_Eta!A$1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="e">
+        <f>yScaling2!A5/(Viscosity!A5-Beta_Eta!A$1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="e">
+        <f>yScaling2!A6/(Viscosity!A6-Beta_Eta!A$1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="e">
+        <f>yScaling2!A7/(Viscosity!A7-Beta_Eta!A$1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>yScaling2!A8/(Viscosity!A8-Beta_Eta!A$1)</f>
+        <v>7.1887881234230649E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>yScaling2!A9/(Viscosity!A9-Beta_Eta!A$1)</f>
+        <v>7.2776202519607439E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>yScaling2!A10/(Viscosity!A10-Beta_Eta!A$1)</f>
+        <v>7.3617255486965516E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>yScaling2!A11/(Viscosity!A11-Beta_Eta!A$1)</f>
+        <v>7.4695759120983224E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>yScaling2!A12/(Viscosity!A12-Beta_Eta!A$1)</f>
+        <v>7.6183994530687416E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>yScaling2!A13/(Viscosity!A13-Beta_Eta!A$1)</f>
+        <v>7.8277757956556102E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>yScaling2!A14/(Viscosity!A14-Beta_Eta!A$1)</f>
+        <v>8.1220013698717064E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>yScaling2!A15/(Viscosity!A15-Beta_Eta!A$1)</f>
+        <v>8.53824963843446E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>yScaling2!A16/(Viscosity!A16-Beta_Eta!A$1)</f>
+        <v>9.1155395303098657E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>yScaling2!A17/(Viscosity!A17-Beta_Eta!A$1)</f>
+        <v>9.9059589363087772E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>yScaling2!A18/(Viscosity!A18-Beta_Eta!A$1)</f>
+        <v>0.10998561038381316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>yScaling2!A19/(Viscosity!A19-Beta_Eta!A$1)</f>
+        <v>0.12471405018453324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>yScaling2!A20/(Viscosity!A20-Beta_Eta!A$1)</f>
+        <v>0.14493871613632608</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>yScaling2!A21/(Viscosity!A21-Beta_Eta!A$1)</f>
+        <v>0.17119041709453728</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>yScaling2!A22/(Viscosity!A22-Beta_Eta!A$1)</f>
+        <v>0.20352078232033252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>yScaling2!A23/(Viscosity!A23-Beta_Eta!A$1)</f>
+        <v>0.24310545342917581</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>yScaling2!A24/(Viscosity!A24-Beta_Eta!A$1)</f>
+        <v>0.28443587680723881</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>yScaling2!A25/(Viscosity!A25-Beta_Eta!A$1)</f>
+        <v>0.32148861249243105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>yScaling2!A26/(Viscosity!A26-Beta_Eta!A$1)</f>
+        <v>0.35372171626714882</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>yScaling2!A27/(Viscosity!A27-Beta_Eta!A$1)</f>
+        <v>0.37973006517162411</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>yScaling2!A28/(Viscosity!A28-Beta_Eta!A$1)</f>
+        <v>0.40054033223049917</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>yScaling2!A29/(Viscosity!A29-Beta_Eta!A$1)</f>
+        <v>0.41887611521450002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>yScaling2!A30/(Viscosity!A30-Beta_Eta!A$1)</f>
+        <v>0.4390262041803118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>yScaling2!A31/(Viscosity!A31-Beta_Eta!A$1)</f>
+        <v>0.44599811257307803</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>yScaling2!A32/(Viscosity!A32-Beta_Eta!A$1)</f>
+        <v>0.45600150961784552</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>yScaling2!A33/(Viscosity!A33-Beta_Eta!A$1)</f>
+        <v>0.46828441579930291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>yScaling2!A34/(Viscosity!A34-Beta_Eta!A$1)</f>
+        <v>0.45125182234805572</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>yScaling2!A35/(Viscosity!A35-Beta_Eta!A$1)</f>
+        <v>0.47058811681258228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>yScaling2!A36/(Viscosity!A36-Beta_Eta!A$1)</f>
+        <v>0.47934031113026632</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>yScaling2!A37/(Viscosity!A37-Beta_Eta!A$1)</f>
+        <v>0.49853866214717185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>yScaling2!A38/(Viscosity!A38-Beta_Eta!A$1)</f>
+        <v>0.49834421810891638</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="e">
+        <f>yScaling2!A39/(Viscosity!A39-Beta_Eta!A$1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="e">
+        <f>yScaling2!A40/(Viscosity!A40-Beta_Eta!A$1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="e">
+        <f>yScaling2!A41/(Viscosity!A41-Beta_Eta!A$1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="e">
+        <f>yScaling2!A42/(Viscosity!A42-Beta_Eta!A$1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="e">
+        <f>yScaling2!A43/(Viscosity!A43-Beta_Eta!A$1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="e">
+        <f>yScaling2!A44/(Viscosity!A44-Beta_Eta!A$1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="e">
+        <f>yScaling2!A45/(Viscosity!A45-Beta_Eta!A$1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="e">
+        <f>yScaling2!A46/(Viscosity!A46-Beta_Eta!A$1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="e">
+        <f>yScaling2!A47/(Viscosity!A47-Beta_Eta!A$1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="e">
+        <f>yScaling2!A48/(Viscosity!A48-Beta_Eta!A$1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="e">
+        <f>yScaling2!A49/(Viscosity!A49-Beta_Eta!A$1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="e">
+        <f>yScaling2!A50/(Viscosity!A50-Beta_Eta!A$1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="e">
+        <f>yScaling2!A51/(Viscosity!A51-Beta_Eta!A$1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E637A551-BE30-4638-AF7B-826930372113}">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="e">
+        <f>SQRT(yScaling2!A1/Viscosity!A1)+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B1" t="e">
+        <f>SQRT(yScaling2!B1/Viscosity!B1)+VolumeFractions!B$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C1" t="e">
+        <f>SQRT(yScaling2!C1/Viscosity!C1)+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D1" t="e">
+        <f>SQRT(yScaling2!D1/Viscosity!D1)+VolumeFractions!D$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E1" t="e">
+        <f>SQRT(yScaling2!E1/Viscosity!E1)+VolumeFractions!E$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F1">
+        <f>SQRT(yScaling2!F1/Viscosity!F1)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G1">
+        <f>SQRT(yScaling2!G1/Viscosity!G1)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H1">
+        <f>SQRT(yScaling2!H1/Viscosity!H1)+VolumeFractions!H$1</f>
+        <v>0.58148917106591025</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="e">
+        <f>SQRT(yScaling2!A2/Viscosity!A2)+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B2" t="e">
+        <f>SQRT(yScaling2!B2/Viscosity!B2)+VolumeFractions!B$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C2" t="e">
+        <f>SQRT(yScaling2!C2/Viscosity!C2)+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D2" t="e">
+        <f>SQRT(yScaling2!D2/Viscosity!D2)+VolumeFractions!D$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E2" t="e">
+        <f>SQRT(yScaling2!E2/Viscosity!E2)+VolumeFractions!E$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F2">
+        <f>SQRT(yScaling2!F2/Viscosity!F2)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G2">
+        <f>SQRT(yScaling2!G2/Viscosity!G2)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H2">
+        <f>SQRT(yScaling2!H2/Viscosity!H2)+VolumeFractions!H$1</f>
+        <v>0.58148917106591025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="e">
+        <f>SQRT(yScaling2!A3/Viscosity!A3)+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B3" t="e">
+        <f>SQRT(yScaling2!B3/Viscosity!B3)+VolumeFractions!B$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C3" t="e">
+        <f>SQRT(yScaling2!C3/Viscosity!C3)+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D3" t="e">
+        <f>SQRT(yScaling2!D3/Viscosity!D3)+VolumeFractions!D$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E3" t="e">
+        <f>SQRT(yScaling2!E3/Viscosity!E3)+VolumeFractions!E$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F3">
+        <f>SQRT(yScaling2!F3/Viscosity!F3)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G3">
+        <f>SQRT(yScaling2!G3/Viscosity!G3)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H3">
+        <f>SQRT(yScaling2!H3/Viscosity!H3)+VolumeFractions!H$1</f>
+        <v>0.58148917106591025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="e">
+        <f>SQRT(yScaling2!A4/Viscosity!A4)+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B4" t="e">
+        <f>SQRT(yScaling2!B4/Viscosity!B4)+VolumeFractions!B$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C4" t="e">
+        <f>SQRT(yScaling2!C4/Viscosity!C4)+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D4" t="e">
+        <f>SQRT(yScaling2!D4/Viscosity!D4)+VolumeFractions!D$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E4" t="e">
+        <f>SQRT(yScaling2!E4/Viscosity!E4)+VolumeFractions!E$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F4">
+        <f>SQRT(yScaling2!F4/Viscosity!F4)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G4">
+        <f>SQRT(yScaling2!G4/Viscosity!G4)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H4">
+        <f>SQRT(yScaling2!H4/Viscosity!H4)+VolumeFractions!H$1</f>
+        <v>0.58148917106591025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="e">
+        <f>SQRT(yScaling2!A5/Viscosity!A5)+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B5">
+        <f>SQRT(yScaling2!B5/Viscosity!B5)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C5">
+        <f>SQRT(yScaling2!C5/Viscosity!C5)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D5">
+        <f>SQRT(yScaling2!D5/Viscosity!D5)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E5">
+        <f>SQRT(yScaling2!E5/Viscosity!E5)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F5">
+        <f>SQRT(yScaling2!F5/Viscosity!F5)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G5">
+        <f>SQRT(yScaling2!G5/Viscosity!G5)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H5">
+        <f>SQRT(yScaling2!H5/Viscosity!H5)+VolumeFractions!H$1</f>
+        <v>0.58148917106591025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="e">
+        <f>SQRT(yScaling2!A6/Viscosity!A6)+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B6">
+        <f>SQRT(yScaling2!B6/Viscosity!B6)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C6">
+        <f>SQRT(yScaling2!C6/Viscosity!C6)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D6">
+        <f>SQRT(yScaling2!D6/Viscosity!D6)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E6">
+        <f>SQRT(yScaling2!E6/Viscosity!E6)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F6">
+        <f>SQRT(yScaling2!F6/Viscosity!F6)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G6">
+        <f>SQRT(yScaling2!G6/Viscosity!G6)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H6">
+        <f>SQRT(yScaling2!H6/Viscosity!H6)+VolumeFractions!H$1</f>
+        <v>0.58148917106591025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="e">
+        <f>SQRT(yScaling2!A7/Viscosity!A7)+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B7">
+        <f>SQRT(yScaling2!B7/Viscosity!B7)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C7">
+        <f>SQRT(yScaling2!C7/Viscosity!C7)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D7">
+        <f>SQRT(yScaling2!D7/Viscosity!D7)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E7">
+        <f>SQRT(yScaling2!E7/Viscosity!E7)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F7">
+        <f>SQRT(yScaling2!F7/Viscosity!F7)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G7">
+        <f>SQRT(yScaling2!G7/Viscosity!G7)+VolumeFractions!G$1</f>
+        <v>0.60048174593052028</v>
+      </c>
+      <c r="H7">
+        <f>SQRT(yScaling2!H7/Viscosity!H7)+VolumeFractions!H$1</f>
+        <v>0.58148917106591014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>SQRT(yScaling2!A8/Viscosity!A8)+VolumeFractions!A$1</f>
+        <v>0.59500419935137328</v>
+      </c>
+      <c r="B8">
+        <f>SQRT(yScaling2!B8/Viscosity!B8)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C8">
+        <f>SQRT(yScaling2!C8/Viscosity!C8)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D8">
+        <f>SQRT(yScaling2!D8/Viscosity!D8)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E8">
+        <f>SQRT(yScaling2!E8/Viscosity!E8)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F8">
+        <f>SQRT(yScaling2!F8/Viscosity!F8)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G8">
+        <f>SQRT(yScaling2!G8/Viscosity!G8)+VolumeFractions!G$1</f>
+        <v>0.60048174593052028</v>
+      </c>
+      <c r="H8">
+        <f>SQRT(yScaling2!H8/Viscosity!H8)+VolumeFractions!H$1</f>
+        <v>0.58148917106591014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>SQRT(yScaling2!A9/Viscosity!A9)+VolumeFractions!A$1</f>
+        <v>0.59500419935137328</v>
+      </c>
+      <c r="B9">
+        <f>SQRT(yScaling2!B9/Viscosity!B9)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C9">
+        <f>SQRT(yScaling2!C9/Viscosity!C9)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D9">
+        <f>SQRT(yScaling2!D9/Viscosity!D9)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E9">
+        <f>SQRT(yScaling2!E9/Viscosity!E9)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F9">
+        <f>SQRT(yScaling2!F9/Viscosity!F9)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G9">
+        <f>SQRT(yScaling2!G9/Viscosity!G9)+VolumeFractions!G$1</f>
+        <v>0.60048174593052028</v>
+      </c>
+      <c r="H9">
+        <f>SQRT(yScaling2!H9/Viscosity!H9)+VolumeFractions!H$1</f>
+        <v>0.58148917106591014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>SQRT(yScaling2!A10/Viscosity!A10)+VolumeFractions!A$1</f>
+        <v>0.59500419935137316</v>
+      </c>
+      <c r="B10">
+        <f>SQRT(yScaling2!B10/Viscosity!B10)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C10">
+        <f>SQRT(yScaling2!C10/Viscosity!C10)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D10">
+        <f>SQRT(yScaling2!D10/Viscosity!D10)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E10">
+        <f>SQRT(yScaling2!E10/Viscosity!E10)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F10">
+        <f>SQRT(yScaling2!F10/Viscosity!F10)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G10">
+        <f>SQRT(yScaling2!G10/Viscosity!G10)+VolumeFractions!G$1</f>
+        <v>0.60048174593052028</v>
+      </c>
+      <c r="H10">
+        <f>SQRT(yScaling2!H10/Viscosity!H10)+VolumeFractions!H$1</f>
+        <v>0.58148917106591014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>SQRT(yScaling2!A11/Viscosity!A11)+VolumeFractions!A$1</f>
+        <v>0.59500419935137328</v>
+      </c>
+      <c r="B11">
+        <f>SQRT(yScaling2!B11/Viscosity!B11)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C11">
+        <f>SQRT(yScaling2!C11/Viscosity!C11)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D11">
+        <f>SQRT(yScaling2!D11/Viscosity!D11)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E11">
+        <f>SQRT(yScaling2!E11/Viscosity!E11)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F11">
+        <f>SQRT(yScaling2!F11/Viscosity!F11)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G11">
+        <f>SQRT(yScaling2!G11/Viscosity!G11)+VolumeFractions!G$1</f>
+        <v>0.60048174593052028</v>
+      </c>
+      <c r="H11">
+        <f>SQRT(yScaling2!H11/Viscosity!H11)+VolumeFractions!H$1</f>
+        <v>0.58148917106591014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>SQRT(yScaling2!A12/Viscosity!A12)+VolumeFractions!A$1</f>
+        <v>0.59500419935137328</v>
+      </c>
+      <c r="B12">
+        <f>SQRT(yScaling2!B12/Viscosity!B12)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C12">
+        <f>SQRT(yScaling2!C12/Viscosity!C12)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D12">
+        <f>SQRT(yScaling2!D12/Viscosity!D12)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E12">
+        <f>SQRT(yScaling2!E12/Viscosity!E12)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F12">
+        <f>SQRT(yScaling2!F12/Viscosity!F12)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G12">
+        <f>SQRT(yScaling2!G12/Viscosity!G12)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H12">
+        <f>SQRT(yScaling2!H12/Viscosity!H12)+VolumeFractions!H$1</f>
+        <v>0.58148917106591025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>SQRT(yScaling2!A13/Viscosity!A13)+VolumeFractions!A$1</f>
+        <v>0.59500419935137328</v>
+      </c>
+      <c r="B13">
+        <f>SQRT(yScaling2!B13/Viscosity!B13)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C13">
+        <f>SQRT(yScaling2!C13/Viscosity!C13)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D13">
+        <f>SQRT(yScaling2!D13/Viscosity!D13)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E13">
+        <f>SQRT(yScaling2!E13/Viscosity!E13)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F13">
+        <f>SQRT(yScaling2!F13/Viscosity!F13)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G13">
+        <f>SQRT(yScaling2!G13/Viscosity!G13)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H13">
+        <f>SQRT(yScaling2!H13/Viscosity!H13)+VolumeFractions!H$1</f>
+        <v>0.58148917106591025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>SQRT(yScaling2!A14/Viscosity!A14)+VolumeFractions!A$1</f>
+        <v>0.59500419935137328</v>
+      </c>
+      <c r="B14">
+        <f>SQRT(yScaling2!B14/Viscosity!B14)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C14">
+        <f>SQRT(yScaling2!C14/Viscosity!C14)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D14">
+        <f>SQRT(yScaling2!D14/Viscosity!D14)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E14">
+        <f>SQRT(yScaling2!E14/Viscosity!E14)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F14">
+        <f>SQRT(yScaling2!F14/Viscosity!F14)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G14">
+        <f>SQRT(yScaling2!G14/Viscosity!G14)+VolumeFractions!G$1</f>
+        <v>0.60048174593052028</v>
+      </c>
+      <c r="H14">
+        <f>SQRT(yScaling2!H14/Viscosity!H14)+VolumeFractions!H$1</f>
+        <v>0.58148917106591025</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>SQRT(yScaling2!A15/Viscosity!A15)+VolumeFractions!A$1</f>
+        <v>0.59500419935137316</v>
+      </c>
+      <c r="B15">
+        <f>SQRT(yScaling2!B15/Viscosity!B15)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C15">
+        <f>SQRT(yScaling2!C15/Viscosity!C15)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D15">
+        <f>SQRT(yScaling2!D15/Viscosity!D15)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E15">
+        <f>SQRT(yScaling2!E15/Viscosity!E15)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F15">
+        <f>SQRT(yScaling2!F15/Viscosity!F15)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G15">
+        <f>SQRT(yScaling2!G15/Viscosity!G15)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H15">
+        <f>SQRT(yScaling2!H15/Viscosity!H15)+VolumeFractions!H$1</f>
+        <v>0.58148917106591025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>SQRT(yScaling2!A16/Viscosity!A16)+VolumeFractions!A$1</f>
+        <v>0.59500419935137316</v>
+      </c>
+      <c r="B16">
+        <f>SQRT(yScaling2!B16/Viscosity!B16)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C16">
+        <f>SQRT(yScaling2!C16/Viscosity!C16)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D16">
+        <f>SQRT(yScaling2!D16/Viscosity!D16)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E16">
+        <f>SQRT(yScaling2!E16/Viscosity!E16)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F16">
+        <f>SQRT(yScaling2!F16/Viscosity!F16)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G16">
+        <f>SQRT(yScaling2!G16/Viscosity!G16)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H16">
+        <f>SQRT(yScaling2!H16/Viscosity!H16)+VolumeFractions!H$1</f>
+        <v>0.58148917106591025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>SQRT(yScaling2!A17/Viscosity!A17)+VolumeFractions!A$1</f>
+        <v>0.59500419935137328</v>
+      </c>
+      <c r="B17">
+        <f>SQRT(yScaling2!B17/Viscosity!B17)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C17">
+        <f>SQRT(yScaling2!C17/Viscosity!C17)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D17">
+        <f>SQRT(yScaling2!D17/Viscosity!D17)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E17">
+        <f>SQRT(yScaling2!E17/Viscosity!E17)+VolumeFractions!E$1</f>
+        <v>0.60955302294649094</v>
+      </c>
+      <c r="F17">
+        <f>SQRT(yScaling2!F17/Viscosity!F17)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G17">
+        <f>SQRT(yScaling2!G17/Viscosity!G17)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H17">
+        <f>SQRT(yScaling2!H17/Viscosity!H17)+VolumeFractions!H$1</f>
+        <v>0.58148917106591014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>SQRT(yScaling2!A18/Viscosity!A18)+VolumeFractions!A$1</f>
+        <v>0.59500419935137328</v>
+      </c>
+      <c r="B18">
+        <f>SQRT(yScaling2!B18/Viscosity!B18)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C18">
+        <f>SQRT(yScaling2!C18/Viscosity!C18)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D18">
+        <f>SQRT(yScaling2!D18/Viscosity!D18)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E18">
+        <f>SQRT(yScaling2!E18/Viscosity!E18)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F18">
+        <f>SQRT(yScaling2!F18/Viscosity!F18)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G18">
+        <f>SQRT(yScaling2!G18/Viscosity!G18)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H18">
+        <f>SQRT(yScaling2!H18/Viscosity!H18)+VolumeFractions!H$1</f>
+        <v>0.58148917106591014</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>SQRT(yScaling2!A19/Viscosity!A19)+VolumeFractions!A$1</f>
+        <v>0.59500419935137328</v>
+      </c>
+      <c r="B19">
+        <f>SQRT(yScaling2!B19/Viscosity!B19)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C19">
+        <f>SQRT(yScaling2!C19/Viscosity!C19)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D19">
+        <f>SQRT(yScaling2!D19/Viscosity!D19)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E19">
+        <f>SQRT(yScaling2!E19/Viscosity!E19)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F19">
+        <f>SQRT(yScaling2!F19/Viscosity!F19)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G19">
+        <f>SQRT(yScaling2!G19/Viscosity!G19)+VolumeFractions!G$1</f>
+        <v>0.60048174593052028</v>
+      </c>
+      <c r="H19">
+        <f>SQRT(yScaling2!H19/Viscosity!H19)+VolumeFractions!H$1</f>
+        <v>0.58148917106591014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>SQRT(yScaling2!A20/Viscosity!A20)+VolumeFractions!A$1</f>
+        <v>0.59500419935137316</v>
+      </c>
+      <c r="B20">
+        <f>SQRT(yScaling2!B20/Viscosity!B20)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C20">
+        <f>SQRT(yScaling2!C20/Viscosity!C20)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D20">
+        <f>SQRT(yScaling2!D20/Viscosity!D20)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E20">
+        <f>SQRT(yScaling2!E20/Viscosity!E20)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F20">
+        <f>SQRT(yScaling2!F20/Viscosity!F20)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G20">
+        <f>SQRT(yScaling2!G20/Viscosity!G20)+VolumeFractions!G$1</f>
+        <v>0.60048174593052028</v>
+      </c>
+      <c r="H20">
+        <f>SQRT(yScaling2!H20/Viscosity!H20)+VolumeFractions!H$1</f>
+        <v>0.58148917106591014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>SQRT(yScaling2!A21/Viscosity!A21)+VolumeFractions!A$1</f>
+        <v>0.59500419935137316</v>
+      </c>
+      <c r="B21">
+        <f>SQRT(yScaling2!B21/Viscosity!B21)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C21">
+        <f>SQRT(yScaling2!C21/Viscosity!C21)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D21">
+        <f>SQRT(yScaling2!D21/Viscosity!D21)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E21">
+        <f>SQRT(yScaling2!E21/Viscosity!E21)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F21">
+        <f>SQRT(yScaling2!F21/Viscosity!F21)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G21">
+        <f>SQRT(yScaling2!G21/Viscosity!G21)+VolumeFractions!G$1</f>
+        <v>0.60048174593052028</v>
+      </c>
+      <c r="H21">
+        <f>SQRT(yScaling2!H21/Viscosity!H21)+VolumeFractions!H$1</f>
+        <v>0.58148917106591014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>SQRT(yScaling2!A22/Viscosity!A22)+VolumeFractions!A$1</f>
+        <v>0.59500419935137316</v>
+      </c>
+      <c r="B22">
+        <f>SQRT(yScaling2!B22/Viscosity!B22)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C22">
+        <f>SQRT(yScaling2!C22/Viscosity!C22)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D22">
+        <f>SQRT(yScaling2!D22/Viscosity!D22)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E22">
+        <f>SQRT(yScaling2!E22/Viscosity!E22)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F22">
+        <f>SQRT(yScaling2!F22/Viscosity!F22)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G22">
+        <f>SQRT(yScaling2!G22/Viscosity!G22)+VolumeFractions!G$1</f>
+        <v>0.60048174593052028</v>
+      </c>
+      <c r="H22">
+        <f>SQRT(yScaling2!H22/Viscosity!H22)+VolumeFractions!H$1</f>
+        <v>0.58148917106591014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>SQRT(yScaling2!A23/Viscosity!A23)+VolumeFractions!A$1</f>
+        <v>0.59500419935137328</v>
+      </c>
+      <c r="B23">
+        <f>SQRT(yScaling2!B23/Viscosity!B23)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C23">
+        <f>SQRT(yScaling2!C23/Viscosity!C23)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D23">
+        <f>SQRT(yScaling2!D23/Viscosity!D23)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E23">
+        <f>SQRT(yScaling2!E23/Viscosity!E23)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F23">
+        <f>SQRT(yScaling2!F23/Viscosity!F23)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G23">
+        <f>SQRT(yScaling2!G23/Viscosity!G23)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H23">
+        <f>SQRT(yScaling2!H23/Viscosity!H23)+VolumeFractions!H$1</f>
+        <v>0.58148917106591014</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>SQRT(yScaling2!A24/Viscosity!A24)+VolumeFractions!A$1</f>
+        <v>0.59500419935137328</v>
+      </c>
+      <c r="B24">
+        <f>SQRT(yScaling2!B24/Viscosity!B24)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C24">
+        <f>SQRT(yScaling2!C24/Viscosity!C24)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D24">
+        <f>SQRT(yScaling2!D24/Viscosity!D24)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E24">
+        <f>SQRT(yScaling2!E24/Viscosity!E24)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F24">
+        <f>SQRT(yScaling2!F24/Viscosity!F24)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G24">
+        <f>SQRT(yScaling2!G24/Viscosity!G24)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H24">
+        <f>SQRT(yScaling2!H24/Viscosity!H24)+VolumeFractions!H$1</f>
+        <v>0.58148917106591025</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>SQRT(yScaling2!A25/Viscosity!A25)+VolumeFractions!A$1</f>
+        <v>0.59500419935137328</v>
+      </c>
+      <c r="B25">
+        <f>SQRT(yScaling2!B25/Viscosity!B25)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C25">
+        <f>SQRT(yScaling2!C25/Viscosity!C25)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D25">
+        <f>SQRT(yScaling2!D25/Viscosity!D25)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E25">
+        <f>SQRT(yScaling2!E25/Viscosity!E25)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F25">
+        <f>SQRT(yScaling2!F25/Viscosity!F25)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G25">
+        <f>SQRT(yScaling2!G25/Viscosity!G25)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H25">
+        <f>SQRT(yScaling2!H25/Viscosity!H25)+VolumeFractions!H$1</f>
+        <v>0.58148917106591025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>SQRT(yScaling2!A26/Viscosity!A26)+VolumeFractions!A$1</f>
+        <v>0.59500419935137328</v>
+      </c>
+      <c r="B26">
+        <f>SQRT(yScaling2!B26/Viscosity!B26)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C26">
+        <f>SQRT(yScaling2!C26/Viscosity!C26)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D26">
+        <f>SQRT(yScaling2!D26/Viscosity!D26)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E26">
+        <f>SQRT(yScaling2!E26/Viscosity!E26)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F26">
+        <f>SQRT(yScaling2!F26/Viscosity!F26)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G26">
+        <f>SQRT(yScaling2!G26/Viscosity!G26)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H26">
+        <f>SQRT(yScaling2!H26/Viscosity!H26)+VolumeFractions!H$1</f>
+        <v>0.58148917106591014</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>SQRT(yScaling2!A27/Viscosity!A27)+VolumeFractions!A$1</f>
+        <v>0.59500419935137328</v>
+      </c>
+      <c r="B27">
+        <f>SQRT(yScaling2!B27/Viscosity!B27)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C27">
+        <f>SQRT(yScaling2!C27/Viscosity!C27)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D27">
+        <f>SQRT(yScaling2!D27/Viscosity!D27)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E27">
+        <f>SQRT(yScaling2!E27/Viscosity!E27)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F27">
+        <f>SQRT(yScaling2!F27/Viscosity!F27)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G27">
+        <f>SQRT(yScaling2!G27/Viscosity!G27)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H27">
+        <f>SQRT(yScaling2!H27/Viscosity!H27)+VolumeFractions!H$1</f>
+        <v>0.58148917106591014</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>SQRT(yScaling2!A28/Viscosity!A28)+VolumeFractions!A$1</f>
+        <v>0.59500419935137316</v>
+      </c>
+      <c r="B28">
+        <f>SQRT(yScaling2!B28/Viscosity!B28)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C28">
+        <f>SQRT(yScaling2!C28/Viscosity!C28)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D28">
+        <f>SQRT(yScaling2!D28/Viscosity!D28)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E28">
+        <f>SQRT(yScaling2!E28/Viscosity!E28)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F28">
+        <f>SQRT(yScaling2!F28/Viscosity!F28)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G28">
+        <f>SQRT(yScaling2!G28/Viscosity!G28)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H28">
+        <f>SQRT(yScaling2!H28/Viscosity!H28)+VolumeFractions!H$1</f>
+        <v>0.58148917106591014</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>SQRT(yScaling2!A29/Viscosity!A29)+VolumeFractions!A$1</f>
+        <v>0.59500419935137316</v>
+      </c>
+      <c r="B29">
+        <f>SQRT(yScaling2!B29/Viscosity!B29)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C29">
+        <f>SQRT(yScaling2!C29/Viscosity!C29)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D29">
+        <f>SQRT(yScaling2!D29/Viscosity!D29)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E29">
+        <f>SQRT(yScaling2!E29/Viscosity!E29)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F29">
+        <f>SQRT(yScaling2!F29/Viscosity!F29)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G29">
+        <f>SQRT(yScaling2!G29/Viscosity!G29)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H29">
+        <f>SQRT(yScaling2!H29/Viscosity!H29)+VolumeFractions!H$1</f>
+        <v>0.58148917106591014</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>SQRT(yScaling2!A30/Viscosity!A30)+VolumeFractions!A$1</f>
+        <v>0.59500419935137328</v>
+      </c>
+      <c r="B30">
+        <f>SQRT(yScaling2!B30/Viscosity!B30)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C30">
+        <f>SQRT(yScaling2!C30/Viscosity!C30)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D30">
+        <f>SQRT(yScaling2!D30/Viscosity!D30)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E30">
+        <f>SQRT(yScaling2!E30/Viscosity!E30)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F30">
+        <f>SQRT(yScaling2!F30/Viscosity!F30)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G30">
+        <f>SQRT(yScaling2!G30/Viscosity!G30)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H30">
+        <f>SQRT(yScaling2!H30/Viscosity!H30)+VolumeFractions!H$1</f>
+        <v>0.58148917106591014</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>SQRT(yScaling2!A31/Viscosity!A31)+VolumeFractions!A$1</f>
+        <v>0.59500419935137316</v>
+      </c>
+      <c r="B31">
+        <f>SQRT(yScaling2!B31/Viscosity!B31)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C31">
+        <f>SQRT(yScaling2!C31/Viscosity!C31)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D31">
+        <f>SQRT(yScaling2!D31/Viscosity!D31)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E31">
+        <f>SQRT(yScaling2!E31/Viscosity!E31)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F31">
+        <f>SQRT(yScaling2!F31/Viscosity!F31)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G31">
+        <f>SQRT(yScaling2!G31/Viscosity!G31)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H31">
+        <f>SQRT(yScaling2!H31/Viscosity!H31)+VolumeFractions!H$1</f>
+        <v>0.58148917106591014</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>SQRT(yScaling2!A32/Viscosity!A32)+VolumeFractions!A$1</f>
+        <v>0.59500419935137328</v>
+      </c>
+      <c r="B32">
+        <f>SQRT(yScaling2!B32/Viscosity!B32)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C32">
+        <f>SQRT(yScaling2!C32/Viscosity!C32)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D32">
+        <f>SQRT(yScaling2!D32/Viscosity!D32)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E32">
+        <f>SQRT(yScaling2!E32/Viscosity!E32)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F32">
+        <f>SQRT(yScaling2!F32/Viscosity!F32)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G32">
+        <f>SQRT(yScaling2!G32/Viscosity!G32)+VolumeFractions!G$1</f>
+        <v>0.60048174593052006</v>
+      </c>
+      <c r="H32">
+        <f>SQRT(yScaling2!H32/Viscosity!H32)+VolumeFractions!H$1</f>
+        <v>0.58148917106591014</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>SQRT(yScaling2!A33/Viscosity!A33)+VolumeFractions!A$1</f>
+        <v>0.59500419935137316</v>
+      </c>
+      <c r="B33">
+        <f>SQRT(yScaling2!B33/Viscosity!B33)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C33">
+        <f>SQRT(yScaling2!C33/Viscosity!C33)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D33">
+        <f>SQRT(yScaling2!D33/Viscosity!D33)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E33">
+        <f>SQRT(yScaling2!E33/Viscosity!E33)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F33">
+        <f>SQRT(yScaling2!F33/Viscosity!F33)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G33">
+        <f>SQRT(yScaling2!G33/Viscosity!G33)+VolumeFractions!G$1</f>
+        <v>0.60048174593052006</v>
+      </c>
+      <c r="H33">
+        <f>SQRT(yScaling2!H33/Viscosity!H33)+VolumeFractions!H$1</f>
+        <v>0.58148917106591014</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>SQRT(yScaling2!A34/Viscosity!A34)+VolumeFractions!A$1</f>
+        <v>0.59500419935137328</v>
+      </c>
+      <c r="B34">
+        <f>SQRT(yScaling2!B34/Viscosity!B34)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C34">
+        <f>SQRT(yScaling2!C34/Viscosity!C34)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D34">
+        <f>SQRT(yScaling2!D34/Viscosity!D34)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E34">
+        <f>SQRT(yScaling2!E34/Viscosity!E34)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F34">
+        <f>SQRT(yScaling2!F34/Viscosity!F34)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G34">
+        <f>SQRT(yScaling2!G34/Viscosity!G34)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H34">
+        <f>SQRT(yScaling2!H34/Viscosity!H34)+VolumeFractions!H$1</f>
+        <v>0.58148917106591014</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>SQRT(yScaling2!A35/Viscosity!A35)+VolumeFractions!A$1</f>
+        <v>0.59500419935137328</v>
+      </c>
+      <c r="B35">
+        <f>SQRT(yScaling2!B35/Viscosity!B35)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C35">
+        <f>SQRT(yScaling2!C35/Viscosity!C35)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D35">
+        <f>SQRT(yScaling2!D35/Viscosity!D35)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E35">
+        <f>SQRT(yScaling2!E35/Viscosity!E35)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F35">
+        <f>SQRT(yScaling2!F35/Viscosity!F35)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G35">
+        <f>SQRT(yScaling2!G35/Viscosity!G35)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H35">
+        <f>SQRT(yScaling2!H35/Viscosity!H35)+VolumeFractions!H$1</f>
+        <v>0.58148917106591014</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>SQRT(yScaling2!A36/Viscosity!A36)+VolumeFractions!A$1</f>
+        <v>0.59500419935137328</v>
+      </c>
+      <c r="B36">
+        <f>SQRT(yScaling2!B36/Viscosity!B36)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C36">
+        <f>SQRT(yScaling2!C36/Viscosity!C36)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D36">
+        <f>SQRT(yScaling2!D36/Viscosity!D36)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E36">
+        <f>SQRT(yScaling2!E36/Viscosity!E36)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F36">
+        <f>SQRT(yScaling2!F36/Viscosity!F36)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G36">
+        <f>SQRT(yScaling2!G36/Viscosity!G36)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H36">
+        <f>SQRT(yScaling2!H36/Viscosity!H36)+VolumeFractions!H$1</f>
+        <v>0.58148917106591014</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>SQRT(yScaling2!A37/Viscosity!A37)+VolumeFractions!A$1</f>
+        <v>0.59500419935137316</v>
+      </c>
+      <c r="B37">
+        <f>SQRT(yScaling2!B37/Viscosity!B37)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C37">
+        <f>SQRT(yScaling2!C37/Viscosity!C37)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D37">
+        <f>SQRT(yScaling2!D37/Viscosity!D37)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E37">
+        <f>SQRT(yScaling2!E37/Viscosity!E37)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F37">
+        <f>SQRT(yScaling2!F37/Viscosity!F37)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G37">
+        <f>SQRT(yScaling2!G37/Viscosity!G37)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H37">
+        <f>SQRT(yScaling2!H37/Viscosity!H37)+VolumeFractions!H$1</f>
+        <v>0.58148917106591014</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>SQRT(yScaling2!A38/Viscosity!A38)+VolumeFractions!A$1</f>
+        <v>0.59500419935137328</v>
+      </c>
+      <c r="B38">
+        <f>SQRT(yScaling2!B38/Viscosity!B38)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C38">
+        <f>SQRT(yScaling2!C38/Viscosity!C38)+VolumeFractions!C$1</f>
+        <v>0.63208624073958741</v>
+      </c>
+      <c r="D38">
+        <f>SQRT(yScaling2!D38/Viscosity!D38)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E38">
+        <f>SQRT(yScaling2!E38/Viscosity!E38)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F38">
+        <f>SQRT(yScaling2!F38/Viscosity!F38)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G38">
+        <f>SQRT(yScaling2!G38/Viscosity!G38)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H38" t="e">
+        <f>SQRT(yScaling2!H38/Viscosity!H38)+VolumeFractions!H$1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="e">
+        <f>SQRT(yScaling2!A39/Viscosity!A39)+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B39">
+        <f>SQRT(yScaling2!B39/Viscosity!B39)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C39" t="e">
+        <f>SQRT(yScaling2!C39/Viscosity!C39)+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D39">
+        <f>SQRT(yScaling2!D39/Viscosity!D39)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E39">
+        <f>SQRT(yScaling2!E39/Viscosity!E39)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F39">
+        <f>SQRT(yScaling2!F39/Viscosity!F39)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G39">
+        <f>SQRT(yScaling2!G39/Viscosity!G39)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H39" t="e">
+        <f>SQRT(yScaling2!H39/Viscosity!H39)+VolumeFractions!H$1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="e">
+        <f>SQRT(yScaling2!A40/Viscosity!A40)+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B40">
+        <f>SQRT(yScaling2!B40/Viscosity!B40)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C40" t="e">
+        <f>SQRT(yScaling2!C40/Viscosity!C40)+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D40">
+        <f>SQRT(yScaling2!D40/Viscosity!D40)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E40">
+        <f>SQRT(yScaling2!E40/Viscosity!E40)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F40">
+        <f>SQRT(yScaling2!F40/Viscosity!F40)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G40">
+        <f>SQRT(yScaling2!G40/Viscosity!G40)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H40" t="e">
+        <f>SQRT(yScaling2!H40/Viscosity!H40)+VolumeFractions!H$1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="e">
+        <f>SQRT(yScaling2!A41/Viscosity!A41)+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B41">
+        <f>SQRT(yScaling2!B41/Viscosity!B41)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C41" t="e">
+        <f>SQRT(yScaling2!C41/Viscosity!C41)+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D41">
+        <f>SQRT(yScaling2!D41/Viscosity!D41)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E41">
+        <f>SQRT(yScaling2!E41/Viscosity!E41)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F41">
+        <f>SQRT(yScaling2!F41/Viscosity!F41)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G41">
+        <f>SQRT(yScaling2!G41/Viscosity!G41)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H41" t="e">
+        <f>SQRT(yScaling2!H41/Viscosity!H41)+VolumeFractions!H$1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="e">
+        <f>SQRT(yScaling2!A42/Viscosity!A42)+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B42">
+        <f>SQRT(yScaling2!B42/Viscosity!B42)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C42" t="e">
+        <f>SQRT(yScaling2!C42/Viscosity!C42)+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D42">
+        <f>SQRT(yScaling2!D42/Viscosity!D42)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E42">
+        <f>SQRT(yScaling2!E42/Viscosity!E42)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F42">
+        <f>SQRT(yScaling2!F42/Viscosity!F42)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G42">
+        <f>SQRT(yScaling2!G42/Viscosity!G42)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H42" t="e">
+        <f>SQRT(yScaling2!H42/Viscosity!H42)+VolumeFractions!H$1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="e">
+        <f>SQRT(yScaling2!A43/Viscosity!A43)+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B43">
+        <f>SQRT(yScaling2!B43/Viscosity!B43)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C43" t="e">
+        <f>SQRT(yScaling2!C43/Viscosity!C43)+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D43">
+        <f>SQRT(yScaling2!D43/Viscosity!D43)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E43">
+        <f>SQRT(yScaling2!E43/Viscosity!E43)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F43">
+        <f>SQRT(yScaling2!F43/Viscosity!F43)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G43">
+        <f>SQRT(yScaling2!G43/Viscosity!G43)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H43" t="e">
+        <f>SQRT(yScaling2!H43/Viscosity!H43)+VolumeFractions!H$1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="e">
+        <f>SQRT(yScaling2!A44/Viscosity!A44)+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B44">
+        <f>SQRT(yScaling2!B44/Viscosity!B44)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C44" t="e">
+        <f>SQRT(yScaling2!C44/Viscosity!C44)+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D44">
+        <f>SQRT(yScaling2!D44/Viscosity!D44)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E44">
+        <f>SQRT(yScaling2!E44/Viscosity!E44)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F44">
+        <f>SQRT(yScaling2!F44/Viscosity!F44)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G44">
+        <f>SQRT(yScaling2!G44/Viscosity!G44)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H44" t="e">
+        <f>SQRT(yScaling2!H44/Viscosity!H44)+VolumeFractions!H$1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="e">
+        <f>SQRT(yScaling2!A45/Viscosity!A45)+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B45">
+        <f>SQRT(yScaling2!B45/Viscosity!B45)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C45" t="e">
+        <f>SQRT(yScaling2!C45/Viscosity!C45)+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D45">
+        <f>SQRT(yScaling2!D45/Viscosity!D45)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E45">
+        <f>SQRT(yScaling2!E45/Viscosity!E45)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F45">
+        <f>SQRT(yScaling2!F45/Viscosity!F45)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G45">
+        <f>SQRT(yScaling2!G45/Viscosity!G45)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H45" t="e">
+        <f>SQRT(yScaling2!H45/Viscosity!H45)+VolumeFractions!H$1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="e">
+        <f>SQRT(yScaling2!A46/Viscosity!A46)+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B46">
+        <f>SQRT(yScaling2!B46/Viscosity!B46)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C46" t="e">
+        <f>SQRT(yScaling2!C46/Viscosity!C46)+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D46">
+        <f>SQRT(yScaling2!D46/Viscosity!D46)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E46">
+        <f>SQRT(yScaling2!E46/Viscosity!E46)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F46">
+        <f>SQRT(yScaling2!F46/Viscosity!F46)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G46">
+        <f>SQRT(yScaling2!G46/Viscosity!G46)+VolumeFractions!G$1</f>
+        <v>0.60048174593052017</v>
+      </c>
+      <c r="H46" t="e">
+        <f>SQRT(yScaling2!H46/Viscosity!H46)+VolumeFractions!H$1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="e">
+        <f>SQRT(yScaling2!A47/Viscosity!A47)+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B47">
+        <f>SQRT(yScaling2!B47/Viscosity!B47)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C47" t="e">
+        <f>SQRT(yScaling2!C47/Viscosity!C47)+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D47">
+        <f>SQRT(yScaling2!D47/Viscosity!D47)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E47">
+        <f>SQRT(yScaling2!E47/Viscosity!E47)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F47">
+        <f>SQRT(yScaling2!F47/Viscosity!F47)+VolumeFractions!F$1</f>
+        <v>0.60686063479106589</v>
+      </c>
+      <c r="G47">
+        <f>SQRT(yScaling2!G47/Viscosity!G47)+VolumeFractions!G$1</f>
+        <v>0.60048174593052028</v>
+      </c>
+      <c r="H47" t="e">
+        <f>SQRT(yScaling2!H47/Viscosity!H47)+VolumeFractions!H$1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="e">
+        <f>SQRT(yScaling2!A48/Viscosity!A48)+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B48">
+        <f>SQRT(yScaling2!B48/Viscosity!B48)+VolumeFractions!B$1</f>
+        <v>0.64355995641732211</v>
+      </c>
+      <c r="C48" t="e">
+        <f>SQRT(yScaling2!C48/Viscosity!C48)+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D48">
+        <f>SQRT(yScaling2!D48/Viscosity!D48)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E48">
+        <f>SQRT(yScaling2!E48/Viscosity!E48)+VolumeFractions!E$1</f>
+        <v>0.60955302294649105</v>
+      </c>
+      <c r="F48" t="e">
+        <f>SQRT(yScaling2!F48/Viscosity!F48)+VolumeFractions!F$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G48" t="e">
+        <f>SQRT(yScaling2!G48/Viscosity!G48)+VolumeFractions!G$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H48" t="e">
+        <f>SQRT(yScaling2!H48/Viscosity!H48)+VolumeFractions!H$1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="e">
+        <f>SQRT(yScaling2!A49/Viscosity!A49)+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B49" t="e">
+        <f>SQRT(yScaling2!B49/Viscosity!B49)+VolumeFractions!B$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C49" t="e">
+        <f>SQRT(yScaling2!C49/Viscosity!C49)+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D49">
+        <f>SQRT(yScaling2!D49/Viscosity!D49)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E49" t="e">
+        <f>SQRT(yScaling2!E49/Viscosity!E49)+VolumeFractions!E$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F49" t="e">
+        <f>SQRT(yScaling2!F49/Viscosity!F49)+VolumeFractions!F$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G49" t="e">
+        <f>SQRT(yScaling2!G49/Viscosity!G49)+VolumeFractions!G$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H49" t="e">
+        <f>SQRT(yScaling2!H49/Viscosity!H49)+VolumeFractions!H$1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="e">
+        <f>SQRT(yScaling2!A50/Viscosity!A50)+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B50" t="e">
+        <f>SQRT(yScaling2!B50/Viscosity!B50)+VolumeFractions!B$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C50" t="e">
+        <f>SQRT(yScaling2!C50/Viscosity!C50)+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D50">
+        <f>SQRT(yScaling2!D50/Viscosity!D50)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E50" t="e">
+        <f>SQRT(yScaling2!E50/Viscosity!E50)+VolumeFractions!E$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" t="e">
+        <f>SQRT(yScaling2!F50/Viscosity!F50)+VolumeFractions!F$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G50" t="e">
+        <f>SQRT(yScaling2!G50/Viscosity!G50)+VolumeFractions!G$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H50" t="e">
+        <f>SQRT(yScaling2!H50/Viscosity!H50)+VolumeFractions!H$1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="e">
+        <f>SQRT(yScaling2!A51/Viscosity!A51)+VolumeFractions!A$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B51" t="e">
+        <f>SQRT(yScaling2!B51/Viscosity!B51)+VolumeFractions!B$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C51" t="e">
+        <f>SQRT(yScaling2!C51/Viscosity!C51)+VolumeFractions!C$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D51">
+        <f>SQRT(yScaling2!D51/Viscosity!D51)+VolumeFractions!D$1</f>
+        <v>0.61816866504385137</v>
+      </c>
+      <c r="E51" t="e">
+        <f>SQRT(yScaling2!E51/Viscosity!E51)+VolumeFractions!E$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F51" t="e">
+        <f>SQRT(yScaling2!F51/Viscosity!F51)+VolumeFractions!F$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G51" t="e">
+        <f>SQRT(yScaling2!G51/Viscosity!G51)+VolumeFractions!G$1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H51" t="e">
+        <f>SQRT(yScaling2!H51/Viscosity!H51)+VolumeFractions!H$1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>1.09783633506351E-2</v>
+      </c>
+      <c r="G1">
+        <v>1.9302676018740201E-3</v>
+      </c>
+      <c r="H1">
+        <v>4.3032553251362598E-4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.11830613479667E-2</v>
+      </c>
+      <c r="G2">
+        <v>2.1117977586439201E-3</v>
+      </c>
+      <c r="H2">
+        <v>6.0801505588621596E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.14427772506116E-2</v>
+      </c>
+      <c r="G3">
+        <v>2.3421188616218501E-3</v>
+      </c>
+      <c r="H3">
+        <v>8.3346325545272104E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1.1772569539301E-2</v>
+      </c>
+      <c r="G4">
+        <v>2.6345850637719101E-3</v>
+      </c>
+      <c r="H4">
+        <v>1.1197417503725101E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>5.6372128383567997E-2</v>
+      </c>
+      <c r="C5">
+        <v>3.4536576284127402E-2</v>
+      </c>
+      <c r="D5">
+        <v>1.3344956192673601E-2</v>
+      </c>
+      <c r="E5">
+        <v>1.24092722819299E-2</v>
+      </c>
+      <c r="F5">
+        <v>1.21917710048413E-2</v>
+      </c>
+      <c r="G5">
+        <v>3.0063410591882099E-3</v>
+      </c>
+      <c r="H5">
+        <v>1.48363250445896E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>5.7157104254757E-2</v>
+      </c>
+      <c r="C6">
+        <v>3.5184997499435003E-2</v>
+      </c>
+      <c r="D6">
+        <v>1.38230519815759E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.29189136269575E-2</v>
+      </c>
+      <c r="F6">
+        <v>1.27252030361254E-2</v>
+      </c>
+      <c r="G6">
+        <v>3.4793989372691901E-3</v>
+      </c>
+      <c r="H6">
+        <v>1.9466818973507801E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>5.8152456195198203E-2</v>
+      </c>
+      <c r="C7">
+        <v>3.6007064284351097E-2</v>
+      </c>
+      <c r="D7">
+        <v>1.4419717683544799E-2</v>
+      </c>
+      <c r="E7">
+        <v>1.35651404987896E-2</v>
+      </c>
+      <c r="F7">
+        <v>1.3405154786825701E-2</v>
+      </c>
+      <c r="G7">
+        <v>4.0823933461527498E-3</v>
+      </c>
+      <c r="H7">
+        <v>2.5369187539556999E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.16284050665546301</v>
+      </c>
+      <c r="B8">
+        <v>5.9416949357970698E-2</v>
+      </c>
+      <c r="C8">
+        <v>3.7050947315190798E-2</v>
+      </c>
+      <c r="D8">
+        <v>1.5165962761588899E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.4386105855695899E-2</v>
+      </c>
+      <c r="F8">
+        <v>1.4273665970307299E-2</v>
+      </c>
+      <c r="G8">
+        <v>4.8526059195491602E-3</v>
+      </c>
+      <c r="H8">
+        <v>3.2908359404861501E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.165752612041278</v>
+      </c>
+      <c r="B9">
+        <v>6.1026586098588201E-2</v>
+      </c>
+      <c r="C9">
+        <v>3.83805714881282E-2</v>
+      </c>
+      <c r="D9">
+        <v>1.6100616836530499E-2</v>
+      </c>
+      <c r="E9">
+        <v>1.5431153816535099E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.5385464703307801E-2</v>
+      </c>
+      <c r="G9">
+        <v>5.8385706135332402E-3</v>
+      </c>
+      <c r="H9">
+        <v>4.2559405801428796E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.16947080667922801</v>
+      </c>
+      <c r="B10">
+        <v>6.3081956457405802E-2</v>
+      </c>
+      <c r="C10">
+        <v>4.00781170993239E-2</v>
+      </c>
+      <c r="D10">
+        <v>1.7274179710641002E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.6765591921761001E-2</v>
+      </c>
+      <c r="F10">
+        <v>1.6813514720239901E-2</v>
+      </c>
+      <c r="G10">
+        <v>7.1049930838471302E-3</v>
+      </c>
+      <c r="H10">
+        <v>5.4955693511556398E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.17423560771504301</v>
+      </c>
+      <c r="B11">
+        <v>6.5715902643659799E-2</v>
+      </c>
+      <c r="C11">
+        <v>4.2253598991841897E-2</v>
+      </c>
+      <c r="D11">
+        <v>1.8752339813348201E-2</v>
+      </c>
+      <c r="E11">
+        <v>1.8475667258292399E-2</v>
+      </c>
+      <c r="F11">
+        <v>1.8654858565982601E-2</v>
+      </c>
+      <c r="G11">
+        <v>8.7379325426712902E-3</v>
+      </c>
+      <c r="H11">
+        <v>7.0939607110141901E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.18036974373815101</v>
+      </c>
+      <c r="B12">
+        <v>6.9106762619418602E-2</v>
+      </c>
+      <c r="C12">
+        <v>4.5054388749656199E-2</v>
+      </c>
+      <c r="D12">
+        <v>2.06207519279108E-2</v>
+      </c>
+      <c r="E12">
+        <v>2.0677164784870101E-2</v>
+      </c>
+      <c r="F12">
+        <v>2.10411430537704E-2</v>
+      </c>
+      <c r="G12">
+        <v>1.0854135938956001E-2</v>
+      </c>
+      <c r="H12">
+        <v>9.1653915935530992E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.188312686453634</v>
+      </c>
+      <c r="B13">
+        <v>7.3497609557648502E-2</v>
+      </c>
+      <c r="C13">
+        <v>4.8680822197769501E-2</v>
+      </c>
+      <c r="D13">
+        <v>2.29933568064026E-2</v>
+      </c>
+      <c r="E13">
+        <v>2.3527898446300901E-2</v>
+      </c>
+      <c r="F13">
+        <v>2.4153673091311199E-2</v>
+      </c>
+      <c r="G13">
+        <v>1.36143879835846E-2</v>
+      </c>
+      <c r="H13">
+        <v>1.18672449876423E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.19867311765572701</v>
+      </c>
+      <c r="B14">
+        <v>7.9224886114957899E-2</v>
+      </c>
+      <c r="C14">
+        <v>5.3411794710123701E-2</v>
+      </c>
+      <c r="D14">
+        <v>2.6023110341522201E-2</v>
+      </c>
+      <c r="E14">
+        <v>2.72463018203952E-2</v>
+      </c>
+      <c r="F14">
+        <v>2.8246509797965901E-2</v>
+      </c>
+      <c r="G14">
+        <v>1.7243995007971899E-2</v>
+      </c>
+      <c r="H14">
+        <v>1.5420060418803699E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.212310400026719</v>
+      </c>
+      <c r="B15">
+        <v>8.6763844758226197E-2</v>
+      </c>
+      <c r="C15">
+        <v>5.96382915369899E-2</v>
+      </c>
+      <c r="D15">
+        <v>2.99198846789849E-2</v>
+      </c>
+      <c r="E15">
+        <v>3.2140930004625097E-2</v>
+      </c>
+      <c r="F15">
+        <v>3.3682168632222599E-2</v>
+      </c>
+      <c r="G15">
+        <v>2.20644427563302E-2</v>
+      </c>
+      <c r="H15">
+        <v>2.0138521957588199E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.23047338094103401</v>
+      </c>
+      <c r="B16">
+        <v>9.6803046057718597E-2</v>
+      </c>
+      <c r="C16">
+        <v>6.7931725506558405E-2</v>
+      </c>
+      <c r="D16">
+        <v>3.4976652423801401E-2</v>
+      </c>
+      <c r="E16">
+        <v>3.8658827230594099E-2</v>
+      </c>
+      <c r="F16">
+        <v>4.0998851392194002E-2</v>
+      </c>
+      <c r="G16">
+        <v>2.8553019028534399E-2</v>
+      </c>
+      <c r="H16">
+        <v>2.6489819426229501E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.25501768769032701</v>
+      </c>
+      <c r="B17">
+        <v>0.110367098996455</v>
+      </c>
+      <c r="C17">
+        <v>7.9138349116691695E-2</v>
+      </c>
+      <c r="D17">
+        <v>4.1606204848392003E-2</v>
+      </c>
+      <c r="E17">
+        <v>4.74652153470232E-2</v>
+      </c>
+      <c r="F17">
+        <v>5.1008135761680402E-2</v>
+      </c>
+      <c r="G17">
+        <v>3.7429446665510201E-2</v>
+      </c>
+      <c r="H17">
+        <v>3.5178448490021101E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.288790894781708</v>
+      </c>
+      <c r="B18">
+        <v>0.12903166542417899</v>
+      </c>
+      <c r="C18">
+        <v>9.4561396008122994E-2</v>
+      </c>
+      <c r="D18">
+        <v>5.04236936967098E-2</v>
+      </c>
+      <c r="E18">
+        <v>5.9583084300335702E-2</v>
+      </c>
+      <c r="F18">
+        <v>6.4984052500238504E-2</v>
+      </c>
+      <c r="G18">
+        <v>4.9823560870956997E-2</v>
+      </c>
+      <c r="H18">
+        <v>4.7310340430063803E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.336362478232269</v>
+      </c>
+      <c r="B19">
+        <v>0.15532594978930001</v>
+      </c>
+      <c r="C19">
+        <v>0.116278087851797</v>
+      </c>
+      <c r="D19">
+        <v>6.2336656013604101E-2</v>
+      </c>
+      <c r="E19">
+        <v>7.6654506419436705E-2</v>
+      </c>
+      <c r="F19">
+        <v>8.5024532444087197E-2</v>
+      </c>
+      <c r="G19">
+        <v>6.7595847426640598E-2</v>
+      </c>
+      <c r="H19">
+        <v>6.4706618731765406E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.405346823440282</v>
+      </c>
+      <c r="B20">
+        <v>0.19344543691536201</v>
+      </c>
+      <c r="C20">
+        <v>0.14777169549230801</v>
+      </c>
+      <c r="D20">
+        <v>7.8777262338627904E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.101403377567869</v>
+      </c>
+      <c r="F20">
+        <v>0.114729964298319</v>
+      </c>
+      <c r="G20">
+        <v>9.3939200911833998E-2</v>
+      </c>
+      <c r="H20">
+        <v>9.0492625906062593E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.50912526456047902</v>
+      </c>
+      <c r="B21">
+        <v>0.25078188590339501</v>
+      </c>
+      <c r="C21">
+        <v>0.19514318398632999</v>
+      </c>
+      <c r="D21">
+        <v>0.102057163793234</v>
+      </c>
+      <c r="E21">
+        <v>0.13862875742203301</v>
+      </c>
+      <c r="F21">
+        <v>0.160664682897523</v>
+      </c>
+      <c r="G21">
+        <v>0.13467500085709999</v>
+      </c>
+      <c r="H21">
+        <v>0.130366578560943</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.67264735078850801</v>
+      </c>
+      <c r="B22">
+        <v>0.34109900862312098</v>
+      </c>
+      <c r="C22">
+        <v>0.26978342205099298</v>
+      </c>
+      <c r="D22">
+        <v>0.13608522807260701</v>
+      </c>
+      <c r="E22">
+        <v>0.19726666158101899</v>
+      </c>
+      <c r="F22">
+        <v>0.23558021078799901</v>
+      </c>
+      <c r="G22">
+        <v>0.20111154493540301</v>
+      </c>
+      <c r="H22">
+        <v>0.195397524723569</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.94581050727996796</v>
+      </c>
+      <c r="B23">
+        <v>0.49195066013135402</v>
+      </c>
+      <c r="C23">
+        <v>0.39443185788285201</v>
+      </c>
+      <c r="D23">
+        <v>0.187841562962033</v>
+      </c>
+      <c r="E23">
+        <v>0.29520628163307</v>
+      </c>
+      <c r="F23">
+        <v>0.36634452287258301</v>
+      </c>
+      <c r="G23">
+        <v>0.317075874738662</v>
+      </c>
+      <c r="H23">
+        <v>0.30890839728389402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1.43704605867526</v>
+      </c>
+      <c r="B24">
+        <v>0.76310764700407197</v>
+      </c>
+      <c r="C24">
+        <v>0.61856821006409102</v>
+      </c>
+      <c r="D24">
+        <v>0.27053037587897899</v>
+      </c>
+      <c r="E24">
+        <v>0.471253490949329</v>
+      </c>
+      <c r="F24">
+        <v>0.61504453262062397</v>
+      </c>
+      <c r="G24">
+        <v>0.53762787010143598</v>
+      </c>
+      <c r="H24">
+        <v>0.52479417423809305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2.4065505285811999</v>
+      </c>
+      <c r="B25">
+        <v>1.2980687928869601</v>
+      </c>
+      <c r="C25">
+        <v>1.0608678798181499</v>
+      </c>
+      <c r="D25">
+        <v>0.41097134725262202</v>
+      </c>
+      <c r="E25">
+        <v>0.81857412580178102</v>
+      </c>
+      <c r="F25">
+        <v>1.14276323332852</v>
+      </c>
+      <c r="G25">
+        <v>1.0056190557443001</v>
+      </c>
+      <c r="H25">
+        <v>0.98288407070011397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4.5593441649896098</v>
+      </c>
+      <c r="B26">
+        <v>2.4853077234586198</v>
+      </c>
+      <c r="C26">
+        <v>2.0423391583759098</v>
+      </c>
+      <c r="D26">
+        <v>0.66830120048029396</v>
+      </c>
+      <c r="E26">
+        <v>1.5893825896709799</v>
+      </c>
+      <c r="F26">
+        <v>2.42876154400963</v>
+      </c>
+      <c r="G26">
+        <v>2.1460673160448098</v>
+      </c>
+      <c r="H26">
+        <v>2.09920386797091</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10.1067562099818</v>
+      </c>
+      <c r="B27">
+        <v>5.5416770256536001</v>
+      </c>
+      <c r="C27">
+        <v>4.5712648373947102</v>
+      </c>
+      <c r="D27">
+        <v>1.1868123421228001</v>
+      </c>
+      <c r="E27">
+        <v>3.57371385288817</v>
+      </c>
+      <c r="F27">
+        <v>6.1686701084934601</v>
+      </c>
+      <c r="G27">
+        <v>5.4626908143988802</v>
+      </c>
+      <c r="H27">
+        <v>5.3456575653359701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27.360321087529499</v>
+      </c>
+      <c r="B28">
+        <v>15.043682782438299</v>
+      </c>
+      <c r="C28">
+        <v>12.434899703483101</v>
+      </c>
+      <c r="D28">
+        <v>2.3615703257946801</v>
+      </c>
+      <c r="E28">
+        <v>9.7428397739332606</v>
+      </c>
+      <c r="F28">
+        <v>19.791944875983202</v>
+      </c>
+      <c r="G28">
+        <v>17.544075275900099</v>
+      </c>
+      <c r="H28">
+        <v>17.171436184402602</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>95.519669187541496</v>
+      </c>
+      <c r="B29">
+        <v>52.542632817105201</v>
+      </c>
+      <c r="C29">
+        <v>43.483156884014797</v>
+      </c>
+      <c r="D29">
+        <v>5.4438085619447802</v>
+      </c>
+      <c r="E29">
+        <v>34.088830567051701</v>
+      </c>
+      <c r="F29">
+        <v>85.883689854876295</v>
+      </c>
+      <c r="G29">
+        <v>76.155517418062303</v>
+      </c>
+      <c r="H29">
+        <v>74.542836086969203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>460.17117357056702</v>
+      </c>
+      <c r="B30">
+        <v>252.95025159063599</v>
+      </c>
+      <c r="C30">
+        <v>209.528760900609</v>
+      </c>
+      <c r="D30">
+        <v>15.1554443924972</v>
+      </c>
+      <c r="E30">
+        <v>164.20239473406301</v>
+      </c>
+      <c r="F30">
+        <v>548.591723767536</v>
+      </c>
+      <c r="G30">
+        <v>486.49398203337</v>
+      </c>
+      <c r="H30">
+        <v>476.19977009909502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3328.8305910198001</v>
+      </c>
+      <c r="B31">
+        <v>1827.24520978241</v>
+      </c>
+      <c r="C31">
+        <v>1515.27840418294</v>
+      </c>
+      <c r="D31">
+        <v>53.594477654665901</v>
+      </c>
+      <c r="E31">
+        <v>1186.3048942002199</v>
+      </c>
+      <c r="F31">
+        <v>5723.9276918491696</v>
+      </c>
+      <c r="G31">
+        <v>5076.0823603753197</v>
+      </c>
+      <c r="H31">
+        <v>4968.6862303941098</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>40189.450877160103</v>
+      </c>
+      <c r="B32">
+        <v>22025.115665363701</v>
+      </c>
+      <c r="C32">
+        <v>18287.764617829202</v>
+      </c>
+      <c r="D32">
+        <v>255.92555382947799</v>
+      </c>
+      <c r="E32">
+        <v>14299.663206835199</v>
+      </c>
+      <c r="F32">
+        <v>111249.592222394</v>
+      </c>
+      <c r="G32">
+        <v>98658.289686274395</v>
+      </c>
+      <c r="H32">
+        <v>96570.974862649193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>924788.02102598199</v>
+      </c>
+      <c r="B33">
+        <v>505858.67881847598</v>
+      </c>
+      <c r="C33">
+        <v>420759.68789300602</v>
+      </c>
+      <c r="D33">
+        <v>1777.4174677414701</v>
+      </c>
+      <c r="E33">
+        <v>328425.99109168397</v>
+      </c>
+      <c r="F33">
+        <v>4747286.5974043999</v>
+      </c>
+      <c r="G33">
+        <v>4209985.8811264103</v>
+      </c>
+      <c r="H33">
+        <v>4120915.21138319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>47931757.054839</v>
+      </c>
+      <c r="B34">
+        <v>26166726.895047199</v>
+      </c>
+      <c r="C34">
+        <v>21806974.625187799</v>
+      </c>
+      <c r="D34">
+        <v>19656.064859969902</v>
+      </c>
+      <c r="E34">
+        <v>16988606.0963526</v>
+      </c>
+      <c r="F34">
+        <v>548231715.77684104</v>
+      </c>
+      <c r="G34">
+        <v>486182525.510539</v>
+      </c>
+      <c r="H34">
+        <v>475896362.16363603</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>6902361582.7330399</v>
+      </c>
+      <c r="B35">
+        <v>3758946639.5856199</v>
+      </c>
+      <c r="C35">
+        <v>3141874172.2862301</v>
+      </c>
+      <c r="D35">
+        <v>387184.04718682199</v>
+      </c>
+      <c r="E35">
+        <v>2440475805.1535902</v>
+      </c>
+      <c r="F35">
+        <v>222967218460.18399</v>
+      </c>
+      <c r="G35">
+        <v>197731656632.01801</v>
+      </c>
+      <c r="H35">
+        <v>193548248113.69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3602171204531.5601</v>
+      </c>
+      <c r="B36">
+        <v>1957312455332.23</v>
+      </c>
+      <c r="C36">
+        <v>1641314647155.6799</v>
+      </c>
+      <c r="D36">
+        <v>15616287.2698179</v>
+      </c>
+      <c r="E36">
+        <v>1270774540959.6699</v>
+      </c>
+      <c r="F36">
+        <v>446982353517069</v>
+      </c>
+      <c r="G36">
+        <v>396392626039754</v>
+      </c>
+      <c r="H36">
+        <v>388006147533369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>9505883087639930</v>
+      </c>
+      <c r="B37" s="1">
+        <v>5138729660488730</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4334767850108710</v>
+      </c>
+      <c r="D37">
+        <v>1529154355.77175</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3336292479840750</v>
+      </c>
+      <c r="F37" s="1">
+        <v>6.7074543498318705E+18</v>
+      </c>
+      <c r="G37" s="1">
+        <v>5.9483006943138703E+18</v>
+      </c>
+      <c r="H37" s="1">
+        <v>5.8224525007670497E+18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>1.92524220314732E+20</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1.0359903068550999E+20</v>
+      </c>
+      <c r="C38" s="1">
+        <v>8.8060255327863603E+19</v>
+      </c>
+      <c r="D38">
+        <v>450844345839.56</v>
+      </c>
+      <c r="E38" s="1">
+        <v>6.7261111175478198E+19</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1.2926229707714699E+24</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1.14632313743868E+24</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1.12207037963754E+24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2.7345938660383501E+25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>520170168360342</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1.7754202990734299E+25</v>
+      </c>
+      <c r="F39" s="1">
+        <v>6.2651815011284499E+30</v>
+      </c>
+      <c r="G39" s="1">
+        <v>5.5560845485439497E+30</v>
+      </c>
+      <c r="H39" s="1">
+        <v>5.4385344717134304E+30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1.8234375328423001E+32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3.2785418494955602E+18</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1.18385697053823E+32</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1.80346064607371E+39</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1.5993439021283701E+39</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1.5655065843318101E+39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1">
+        <v>7.1275616984854199E+40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1.6811618028309301E+23</v>
+      </c>
+      <c r="E41" s="1">
+        <v>4.6275309396206498E+40</v>
+      </c>
+      <c r="F41" s="1">
+        <v>9.0689676237880803E+49</v>
+      </c>
+      <c r="G41" s="1">
+        <v>8.0425364974180896E+49</v>
+      </c>
+      <c r="H41" s="1">
+        <v>7.8723805584787699E+49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4.6743913926334603E+51</v>
+      </c>
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1.17039583704618E+29</v>
+      </c>
+      <c r="E42" s="1">
+        <v>3.0348233671417001E+51</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3.14235394816395E+63</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2.7867004673855199E+63</v>
+      </c>
+      <c r="H42" s="1">
+        <v>2.7277422475847399E+63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1.93797804225536E+65</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2.06258628707068E+36</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1.2582217776870001E+65</v>
+      </c>
+      <c r="F43" s="1">
+        <v>4.23070686542875E+80</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3.75187295694365E+80</v>
+      </c>
+      <c r="H43" s="1">
+        <v>3.67249458346972E+80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2.7252737077889099E+82</v>
+      </c>
+      <c r="C44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1.9990817607583501E+45</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1.76936923666444E+82</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2.0062470820513799E+102</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1.77917884919046E+102</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1.7415367635471801E+102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1.04704982314521E+104</v>
+      </c>
+      <c r="C45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2.7920978999315601E+56</v>
+      </c>
+      <c r="E45" s="1">
+        <v>6.79791442978089E+103</v>
+      </c>
+      <c r="F45" s="1">
+        <v>5.2269042929315103E+129</v>
+      </c>
+      <c r="G45" s="1">
+        <v>4.63532016964617E+129</v>
+      </c>
+      <c r="H45" s="1">
+        <v>4.5372507041232297E+129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1.5658133644404201E+131</v>
+      </c>
+      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1.8571925551382701E+70</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1.0165958705288E+131</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2.5609762312436698E+164</v>
+      </c>
+      <c r="G46" s="1">
+        <v>2.27112342476246E+164</v>
+      </c>
+      <c r="H46" s="1">
+        <v>2.2230732680847001E+164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2.5851156705513698E+165</v>
+      </c>
+      <c r="C47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2.5929951598646702E+87</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1.6783723879256799E+165</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2.00265772733747E+208</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1.77599573976871E+208</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1.7384209991692001E+208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3.0947170472536998E+208</v>
+      </c>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>4.7016356004727103E+108</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2.00922832959567E+208</v>
+      </c>
+      <c r="F48" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1.09669063126096E+135</v>
+      </c>
+      <c r="E49" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>5.6382782939675705E+167</v>
+      </c>
+      <c r="E50" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2.03233134014754E+208</v>
+      </c>
+      <c r="E51" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
